--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7481670954301202</v>
+        <v>0.7481670954301206</v>
       </c>
       <c r="D2">
-        <v>0.7731793463280237</v>
+        <v>0.7731793463280243</v>
       </c>
       <c r="E2">
-        <v>0.7796332718070511</v>
+        <v>0.7796332718070517</v>
       </c>
       <c r="F2">
-        <v>0.7453811792144674</v>
+        <v>0.7453811792144679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7817980123734819</v>
+        <v>0.7817980123734825</v>
       </c>
       <c r="K2">
-        <v>0.7890671607556177</v>
+        <v>0.7890671607556183</v>
       </c>
       <c r="L2">
-        <v>0.7953465483961027</v>
+        <v>0.7953465483961032</v>
       </c>
       <c r="M2">
-        <v>0.7620684274720084</v>
+        <v>0.762068427472009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8104871774230391</v>
+        <v>0.8104871774230374</v>
       </c>
       <c r="D3">
-        <v>0.8298994294041169</v>
+        <v>0.8298994294041153</v>
       </c>
       <c r="E3">
-        <v>0.8349684002751109</v>
+        <v>0.8349684002751095</v>
       </c>
       <c r="F3">
-        <v>0.8095497771089061</v>
+        <v>0.8095497771089043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8379252704554774</v>
+        <v>0.8379252704554759</v>
       </c>
       <c r="K3">
-        <v>0.8432974591227956</v>
+        <v>0.8432974591227944</v>
       </c>
       <c r="L3">
-        <v>0.8482625632841461</v>
+        <v>0.8482625632841447</v>
       </c>
       <c r="M3">
-        <v>0.8233822077687826</v>
+        <v>0.8233822077687808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,25 +482,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8388182146165992</v>
+        <v>0.8388182146165993</v>
       </c>
       <c r="D4">
-        <v>0.855793341535793</v>
+        <v>0.8557933415357928</v>
       </c>
       <c r="E4">
-        <v>0.8602448517952406</v>
+        <v>0.8602448517952407</v>
       </c>
       <c r="F4">
-        <v>0.8387395032663549</v>
+        <v>0.838739503266355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8634875050323726</v>
+        <v>0.8634875050323727</v>
       </c>
       <c r="K4">
-        <v>0.8680125073179106</v>
+        <v>0.8680125073179105</v>
       </c>
       <c r="L4">
         <v>0.872384766335102</v>
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8492775652951569</v>
+        <v>0.8492775652951583</v>
       </c>
       <c r="D5">
-        <v>0.8653661529082851</v>
+        <v>0.8653661529082866</v>
       </c>
       <c r="E5">
-        <v>0.8695909055519347</v>
+        <v>0.8695909055519363</v>
       </c>
       <c r="F5">
-        <v>0.849520402341309</v>
+        <v>0.8495204023413103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8729279062194341</v>
+        <v>0.8729279062194355</v>
       </c>
       <c r="K5">
-        <v>0.8771415475873025</v>
+        <v>0.8771415475873039</v>
       </c>
       <c r="L5">
-        <v>0.8812951047767263</v>
+        <v>0.8812951047767279</v>
       </c>
       <c r="M5">
-        <v>0.8615710170143643</v>
+        <v>0.8615710170143657</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8509668745900988</v>
+        <v>0.8509668745901017</v>
       </c>
       <c r="D6">
-        <v>0.8669128676131667</v>
+        <v>0.8669128676131694</v>
       </c>
       <c r="E6">
-        <v>0.8711010416994421</v>
+        <v>0.8711010416994449</v>
       </c>
       <c r="F6">
-        <v>0.8512619091957198</v>
+        <v>0.8512619091957229</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8744527227346649</v>
+        <v>0.8744527227346676</v>
       </c>
       <c r="K6">
-        <v>0.878616126279368</v>
+        <v>0.8786161262793706</v>
       </c>
       <c r="L6">
-        <v>0.8827343565401893</v>
+        <v>0.8827343565401919</v>
       </c>
       <c r="M6">
-        <v>0.8632344404122546</v>
+        <v>0.8632344404122577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8389627771081072</v>
+        <v>0.8389627771081037</v>
       </c>
       <c r="D7">
-        <v>0.8559256062062057</v>
+        <v>0.8559256062062026</v>
       </c>
       <c r="E7">
-        <v>0.8603739787296537</v>
+        <v>0.8603739787296507</v>
       </c>
       <c r="F7">
-        <v>0.838888491590643</v>
+        <v>0.8388884915906396</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8636179766201959</v>
+        <v>0.8636179766201926</v>
       </c>
       <c r="K7">
-        <v>0.8681386713459947</v>
+        <v>0.8681386713459915</v>
       </c>
       <c r="L7">
-        <v>0.8725079076202076</v>
+        <v>0.8725079076202047</v>
       </c>
       <c r="M7">
-        <v>0.8514147900050227</v>
+        <v>0.8514147900050194</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D8">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E8">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F8">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K8">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L8">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M8">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D9">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E9">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F9">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K9">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L9">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M9">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D10">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E10">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F10">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K10">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L10">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M10">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D11">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E11">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F11">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K11">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L11">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M11">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D12">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E12">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F12">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K12">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L12">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M12">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D13">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E13">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F13">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K13">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L13">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M13">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D14">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E14">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F14">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K14">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L14">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M14">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D15">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E15">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F15">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K15">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L15">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M15">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D16">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E16">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F16">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K16">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L16">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M16">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D17">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E17">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F17">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K17">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L17">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M17">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D18">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E18">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F18">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K18">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L18">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M18">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D19">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E19">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F19">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K19">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L19">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M19">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D20">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E20">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F20">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K20">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L20">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M20">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D21">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E21">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F21">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K21">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L21">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M21">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D22">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E22">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F22">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K22">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L22">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M22">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D23">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E23">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F23">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K23">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L23">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M23">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D24">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E24">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F24">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K24">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L24">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M24">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7733629549704177</v>
+        <v>0.773362954970416</v>
       </c>
       <c r="D25">
-        <v>0.7960653497484498</v>
+        <v>0.7960653497484482</v>
       </c>
       <c r="E25">
-        <v>0.8019538603075067</v>
+        <v>0.8019538603075053</v>
       </c>
       <c r="F25">
-        <v>0.7713201440802955</v>
+        <v>0.771320144080294</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8044670780672359</v>
+        <v>0.8044670780672344</v>
       </c>
       <c r="K25">
-        <v>0.8109622806726997</v>
+        <v>0.8109622806726983</v>
       </c>
       <c r="L25">
-        <v>0.8167078168582917</v>
+        <v>0.8167078168582901</v>
       </c>
       <c r="M25">
-        <v>0.7868503577495418</v>
+        <v>0.7868503577495403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7481670954301206</v>
+        <v>0.7481670954301202</v>
       </c>
       <c r="D2">
-        <v>0.7731793463280243</v>
+        <v>0.7731793463280237</v>
       </c>
       <c r="E2">
-        <v>0.7796332718070517</v>
+        <v>0.7796332718070511</v>
       </c>
       <c r="F2">
-        <v>0.7453811792144679</v>
+        <v>0.7453811792144674</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7817980123734825</v>
+        <v>0.7817980123734819</v>
       </c>
       <c r="K2">
-        <v>0.7890671607556183</v>
+        <v>0.7890671607556177</v>
       </c>
       <c r="L2">
-        <v>0.7953465483961032</v>
+        <v>0.7953465483961027</v>
       </c>
       <c r="M2">
-        <v>0.762068427472009</v>
+        <v>0.7620684274720084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8104871774230374</v>
+        <v>0.8104871774230391</v>
       </c>
       <c r="D3">
-        <v>0.8298994294041153</v>
+        <v>0.8298994294041169</v>
       </c>
       <c r="E3">
-        <v>0.8349684002751095</v>
+        <v>0.8349684002751109</v>
       </c>
       <c r="F3">
-        <v>0.8095497771089043</v>
+        <v>0.8095497771089061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8379252704554759</v>
+        <v>0.8379252704554774</v>
       </c>
       <c r="K3">
-        <v>0.8432974591227944</v>
+        <v>0.8432974591227956</v>
       </c>
       <c r="L3">
-        <v>0.8482625632841447</v>
+        <v>0.8482625632841461</v>
       </c>
       <c r="M3">
-        <v>0.8233822077687808</v>
+        <v>0.8233822077687826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,25 +482,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8388182146165993</v>
+        <v>0.8388182146165992</v>
       </c>
       <c r="D4">
-        <v>0.8557933415357928</v>
+        <v>0.855793341535793</v>
       </c>
       <c r="E4">
-        <v>0.8602448517952407</v>
+        <v>0.8602448517952406</v>
       </c>
       <c r="F4">
-        <v>0.838739503266355</v>
+        <v>0.8387395032663549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8634875050323727</v>
+        <v>0.8634875050323726</v>
       </c>
       <c r="K4">
-        <v>0.8680125073179105</v>
+        <v>0.8680125073179106</v>
       </c>
       <c r="L4">
         <v>0.872384766335102</v>
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8492775652951583</v>
+        <v>0.8492775652951569</v>
       </c>
       <c r="D5">
-        <v>0.8653661529082866</v>
+        <v>0.8653661529082851</v>
       </c>
       <c r="E5">
-        <v>0.8695909055519363</v>
+        <v>0.8695909055519347</v>
       </c>
       <c r="F5">
-        <v>0.8495204023413103</v>
+        <v>0.849520402341309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8729279062194355</v>
+        <v>0.8729279062194341</v>
       </c>
       <c r="K5">
-        <v>0.8771415475873039</v>
+        <v>0.8771415475873025</v>
       </c>
       <c r="L5">
-        <v>0.8812951047767279</v>
+        <v>0.8812951047767263</v>
       </c>
       <c r="M5">
-        <v>0.8615710170143657</v>
+        <v>0.8615710170143643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8509668745901017</v>
+        <v>0.8509668745900988</v>
       </c>
       <c r="D6">
-        <v>0.8669128676131694</v>
+        <v>0.8669128676131667</v>
       </c>
       <c r="E6">
-        <v>0.8711010416994449</v>
+        <v>0.8711010416994421</v>
       </c>
       <c r="F6">
-        <v>0.8512619091957229</v>
+        <v>0.8512619091957198</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8744527227346676</v>
+        <v>0.8744527227346649</v>
       </c>
       <c r="K6">
-        <v>0.8786161262793706</v>
+        <v>0.878616126279368</v>
       </c>
       <c r="L6">
-        <v>0.8827343565401919</v>
+        <v>0.8827343565401893</v>
       </c>
       <c r="M6">
-        <v>0.8632344404122577</v>
+        <v>0.8632344404122546</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8389627771081037</v>
+        <v>0.8389627771081072</v>
       </c>
       <c r="D7">
-        <v>0.8559256062062026</v>
+        <v>0.8559256062062057</v>
       </c>
       <c r="E7">
-        <v>0.8603739787296507</v>
+        <v>0.8603739787296537</v>
       </c>
       <c r="F7">
-        <v>0.8388884915906396</v>
+        <v>0.838888491590643</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8636179766201926</v>
+        <v>0.8636179766201959</v>
       </c>
       <c r="K7">
-        <v>0.8681386713459915</v>
+        <v>0.8681386713459947</v>
       </c>
       <c r="L7">
-        <v>0.8725079076202047</v>
+        <v>0.8725079076202076</v>
       </c>
       <c r="M7">
-        <v>0.8514147900050194</v>
+        <v>0.8514147900050227</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D8">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E8">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F8">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K8">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L8">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M8">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D9">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E9">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F9">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K9">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L9">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M9">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D10">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E10">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F10">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K10">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L10">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M10">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D11">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E11">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F11">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K11">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L11">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M11">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D12">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E12">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F12">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K12">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L12">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M12">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D13">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E13">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F13">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K13">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L13">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M13">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D14">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E14">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F14">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K14">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L14">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M14">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D15">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E15">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F15">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K15">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L15">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M15">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D16">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E16">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F16">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K16">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L16">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M16">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D17">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E17">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F17">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K17">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L17">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M17">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D18">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E18">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F18">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K18">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L18">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M18">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D19">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E19">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F19">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K19">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L19">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M19">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D20">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E20">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F20">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K20">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L20">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M20">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D21">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E21">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F21">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K21">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L21">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M21">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D22">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E22">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F22">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K22">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L22">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M22">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D23">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E23">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F23">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K23">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L23">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M23">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D24">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E24">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F24">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K24">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L24">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M24">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.773362954970416</v>
+        <v>0.7733629549704177</v>
       </c>
       <c r="D25">
-        <v>0.7960653497484482</v>
+        <v>0.7960653497484498</v>
       </c>
       <c r="E25">
-        <v>0.8019538603075053</v>
+        <v>0.8019538603075067</v>
       </c>
       <c r="F25">
-        <v>0.771320144080294</v>
+        <v>0.7713201440802955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8044670780672344</v>
+        <v>0.8044670780672359</v>
       </c>
       <c r="K25">
-        <v>0.8109622806726983</v>
+        <v>0.8109622806726997</v>
       </c>
       <c r="L25">
-        <v>0.8167078168582901</v>
+        <v>0.8167078168582917</v>
       </c>
       <c r="M25">
-        <v>0.7868503577495403</v>
+        <v>0.7868503577495418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7481670954301202</v>
+        <v>0.757176704392563</v>
       </c>
       <c r="D2">
-        <v>0.7731793463280237</v>
+        <v>0.7813793519131046</v>
       </c>
       <c r="E2">
-        <v>0.7796332718070511</v>
+        <v>0.7875127672443222</v>
       </c>
       <c r="F2">
-        <v>0.7453811792144674</v>
+        <v>0.7543943732655243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7817980123734819</v>
+        <v>0.7901999783446521</v>
       </c>
       <c r="K2">
-        <v>0.7890671607556177</v>
+        <v>0.7970460808364834</v>
       </c>
       <c r="L2">
-        <v>0.7953465483961027</v>
+        <v>0.8030182049057328</v>
       </c>
       <c r="M2">
-        <v>0.7620684274720084</v>
+        <v>0.770813556308858</v>
+      </c>
+      <c r="N2">
+        <v>0.7913221529511058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8104871774230391</v>
+        <v>0.8170790712019862</v>
       </c>
       <c r="D3">
-        <v>0.8298994294041169</v>
+        <v>0.8359425400028633</v>
       </c>
       <c r="E3">
-        <v>0.8349684002751109</v>
+        <v>0.8407437515859374</v>
       </c>
       <c r="F3">
-        <v>0.8095497771089061</v>
+        <v>0.8160615723055272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8379252704554774</v>
+        <v>0.8441967822317247</v>
       </c>
       <c r="K3">
-        <v>0.8432974591227956</v>
+        <v>0.8492169322977281</v>
       </c>
       <c r="L3">
-        <v>0.8482625632841461</v>
+        <v>0.8539215808059666</v>
       </c>
       <c r="M3">
-        <v>0.8233822077687826</v>
+        <v>0.8297518688081077</v>
+      </c>
+      <c r="N3">
+        <v>0.845395638493218</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8388182146165992</v>
+        <v>0.8448501685892441</v>
       </c>
       <c r="D4">
-        <v>0.855793341535793</v>
+        <v>0.8613372424196237</v>
       </c>
       <c r="E4">
-        <v>0.8602448517952406</v>
+        <v>0.8655317214399805</v>
       </c>
       <c r="F4">
-        <v>0.8387395032663549</v>
+        <v>0.8446690921774743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8634875050323726</v>
+        <v>0.8692706981876449</v>
       </c>
       <c r="K4">
-        <v>0.8680125073179106</v>
+        <v>0.8734578711711392</v>
       </c>
       <c r="L4">
-        <v>0.872384766335102</v>
+        <v>0.8775788836726154</v>
       </c>
       <c r="M4">
-        <v>0.8512724562426649</v>
+        <v>0.8570910681076086</v>
+      </c>
+      <c r="N4">
+        <v>0.8705051622858139</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8492775652951569</v>
+        <v>0.8551471706140398</v>
       </c>
       <c r="D5">
-        <v>0.8653661529082851</v>
+        <v>0.8707654241028601</v>
       </c>
       <c r="E5">
-        <v>0.8695909055519347</v>
+        <v>0.8747360234257805</v>
       </c>
       <c r="F5">
-        <v>0.849520402341309</v>
+        <v>0.8552806742454807</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8729279062194341</v>
+        <v>0.8785704025969069</v>
       </c>
       <c r="K5">
-        <v>0.8771415475873025</v>
+        <v>0.8824499884856233</v>
       </c>
       <c r="L5">
-        <v>0.8812951047767263</v>
+        <v>0.8863547122524758</v>
       </c>
       <c r="M5">
-        <v>0.8615710170143643</v>
+        <v>0.8672297124225155</v>
+      </c>
+      <c r="N5">
+        <v>0.8798180733420283</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8509668745900988</v>
+        <v>0.8568120773900899</v>
       </c>
       <c r="D6">
-        <v>0.8669128676131667</v>
+        <v>0.8722904066275026</v>
       </c>
       <c r="E6">
-        <v>0.8711010416994421</v>
+        <v>0.8762248480357565</v>
       </c>
       <c r="F6">
-        <v>0.8512619091957198</v>
+        <v>0.8569967035316834</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8744527227346649</v>
+        <v>0.8800741187119293</v>
       </c>
       <c r="K6">
-        <v>0.878616126279368</v>
+        <v>0.8839040163026194</v>
       </c>
       <c r="L6">
-        <v>0.8827343565401893</v>
+        <v>0.8877737626082203</v>
       </c>
       <c r="M6">
-        <v>0.8632344404122546</v>
+        <v>0.8688690913436856</v>
+      </c>
+      <c r="N6">
+        <v>0.8813239249064126</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8389627771081072</v>
+        <v>0.84499234720677</v>
       </c>
       <c r="D7">
-        <v>0.8559256062062057</v>
+        <v>0.8614673828840899</v>
       </c>
       <c r="E7">
-        <v>0.8603739787296537</v>
+        <v>0.8656587673504784</v>
       </c>
       <c r="F7">
-        <v>0.838888491590643</v>
+        <v>0.8448155964139741</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8636179766201959</v>
+        <v>0.8693991001962599</v>
       </c>
       <c r="K7">
-        <v>0.8681386713459947</v>
+        <v>0.8735820224053559</v>
       </c>
       <c r="L7">
-        <v>0.8725079076202076</v>
+        <v>0.8777000486204358</v>
       </c>
       <c r="M7">
-        <v>0.8514147900050227</v>
+        <v>0.8572310542917081</v>
+      </c>
+      <c r="N7">
+        <v>0.8706337466400091</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D8">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E8">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F8">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K8">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L8">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M8">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N8">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D9">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E9">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F9">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K9">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L9">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M9">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N9">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D10">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E10">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F10">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K10">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L10">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M10">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N10">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D11">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E11">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F11">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K11">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L11">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M11">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N11">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D12">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E12">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F12">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K12">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L12">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M12">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N12">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D13">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E13">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F13">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K13">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L13">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M13">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N13">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D14">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E14">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F14">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K14">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L14">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M14">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N14">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D15">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E15">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F15">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K15">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L15">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M15">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N15">
+        <v>0.8129012010350808</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D16">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E16">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F16">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K16">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L16">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M16">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N16">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D17">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E17">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F17">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K17">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L17">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M17">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N17">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D18">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E18">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F18">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K18">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L18">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M18">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N18">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D19">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E19">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F19">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K19">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L19">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M19">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N19">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D20">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E20">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F20">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K20">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L20">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M20">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N20">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D21">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E21">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F21">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K21">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L21">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M21">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N21">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D22">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E22">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F22">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K22">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L22">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M22">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N22">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D23">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E23">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F23">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K23">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L23">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M23">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N23">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D24">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E24">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F24">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K24">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L24">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M24">
-        <v>0.7868503577495418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N24">
+        <v>0.8129012010350808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7733629549704177</v>
+        <v>0.7811038087682514</v>
       </c>
       <c r="D25">
-        <v>0.7960653497484498</v>
+        <v>0.8031334306548874</v>
       </c>
       <c r="E25">
-        <v>0.8019538603075067</v>
+        <v>0.8087299329921281</v>
       </c>
       <c r="F25">
-        <v>0.7713201440802955</v>
+        <v>0.7790221140100575</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8044670780672359</v>
+        <v>0.8117484251625043</v>
       </c>
       <c r="K25">
-        <v>0.8109622806726997</v>
+        <v>0.8178590852699846</v>
       </c>
       <c r="L25">
-        <v>0.8167078168582917</v>
+        <v>0.8233228151692271</v>
       </c>
       <c r="M25">
-        <v>0.7868503577495418</v>
+        <v>0.7943493748268852</v>
+      </c>
+      <c r="N25">
+        <v>0.8129012010350808</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.757176704392563</v>
+        <v>0.8489567722336193</v>
       </c>
       <c r="D2">
-        <v>0.7813793519131046</v>
+        <v>0.8623830186136398</v>
       </c>
       <c r="E2">
-        <v>0.7875127672443222</v>
+        <v>0.8733351810628468</v>
       </c>
       <c r="F2">
-        <v>0.7543943732655243</v>
+        <v>0.8610477349620196</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.020964141385007</v>
+      </c>
       <c r="J2">
-        <v>0.7901999783446521</v>
+        <v>0.8768312292434096</v>
       </c>
       <c r="K2">
-        <v>0.7970460808364834</v>
+        <v>0.8761629200637978</v>
       </c>
       <c r="L2">
-        <v>0.8030182049057328</v>
+        <v>0.8868952173804134</v>
       </c>
       <c r="M2">
-        <v>0.770813556308858</v>
+        <v>0.8748549469057187</v>
       </c>
       <c r="N2">
-        <v>0.7913221529511058</v>
+        <v>0.8780764301628832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8170790712019862</v>
+        <v>0.8985752532836701</v>
       </c>
       <c r="D3">
-        <v>0.8359425400028633</v>
+        <v>0.9112324532651167</v>
       </c>
       <c r="E3">
-        <v>0.8407437515859374</v>
+        <v>0.9161014304048786</v>
       </c>
       <c r="F3">
-        <v>0.8160615723055272</v>
+        <v>0.9115707870470487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.02938181318745</v>
+      </c>
       <c r="J3">
-        <v>0.8441967822317247</v>
+        <v>0.9222724827820125</v>
       </c>
       <c r="K3">
-        <v>0.8492169322977281</v>
+        <v>0.9231430019500697</v>
       </c>
       <c r="L3">
-        <v>0.8539215808059666</v>
+        <v>0.9279336745758812</v>
       </c>
       <c r="M3">
-        <v>0.8297518688081077</v>
+        <v>0.923475859817977</v>
       </c>
       <c r="N3">
-        <v>0.845395638493218</v>
+        <v>0.9235822154936951</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8448501685892441</v>
+        <v>0.9238572071451607</v>
       </c>
       <c r="D4">
-        <v>0.8613372424196237</v>
+        <v>0.9361586954808875</v>
       </c>
       <c r="E4">
-        <v>0.8655317214399805</v>
+        <v>0.9379460558776321</v>
       </c>
       <c r="F4">
-        <v>0.8446690921774743</v>
+        <v>0.9373515529031636</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.033690425155941</v>
+      </c>
       <c r="J4">
-        <v>0.8692706981876449</v>
+        <v>0.9454318031603202</v>
       </c>
       <c r="K4">
-        <v>0.8734578711711392</v>
+        <v>0.9470940126594414</v>
       </c>
       <c r="L4">
-        <v>0.8775788836726154</v>
+        <v>0.9488559838055216</v>
       </c>
       <c r="M4">
-        <v>0.8570910681076086</v>
+        <v>0.9482699120871628</v>
       </c>
       <c r="N4">
-        <v>0.8705051622858139</v>
+        <v>0.9467744247633513</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.8551471706140398</v>
+        <v>0.9334608584749146</v>
       </c>
       <c r="D5">
-        <v>0.8707654241028601</v>
+        <v>0.9456329287974676</v>
       </c>
       <c r="E5">
-        <v>0.8747360234257805</v>
+        <v>0.9462520354275233</v>
       </c>
       <c r="F5">
-        <v>0.8552806742454807</v>
+        <v>0.9471515425099143</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.035325157473915</v>
+      </c>
       <c r="J5">
-        <v>0.8785704025969069</v>
+        <v>0.9542277247187247</v>
       </c>
       <c r="K5">
-        <v>0.8824499884856233</v>
+        <v>0.9561926389171074</v>
       </c>
       <c r="L5">
-        <v>0.8863547122524758</v>
+        <v>0.956803377467942</v>
       </c>
       <c r="M5">
-        <v>0.8672297124225155</v>
+        <v>0.9576907509792212</v>
       </c>
       <c r="N5">
-        <v>0.8798180733420283</v>
+        <v>0.9555828375392751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8568120773900899</v>
+        <v>0.9350234357037756</v>
       </c>
       <c r="D6">
-        <v>0.8722904066275026</v>
+        <v>0.9471747319984203</v>
       </c>
       <c r="E6">
-        <v>0.8762248480357565</v>
+        <v>0.9476038591400104</v>
       </c>
       <c r="F6">
-        <v>0.8569967035316834</v>
+        <v>0.9487464285607139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.035590899456495</v>
+      </c>
       <c r="J6">
-        <v>0.8800741187119293</v>
+        <v>0.9556587471143055</v>
       </c>
       <c r="K6">
-        <v>0.8839040163026194</v>
+        <v>0.9576730315210354</v>
       </c>
       <c r="L6">
-        <v>0.8877737626082203</v>
+        <v>0.9580964059680701</v>
       </c>
       <c r="M6">
-        <v>0.8688690913436856</v>
+        <v>0.9592236904605291</v>
       </c>
       <c r="N6">
-        <v>0.8813239249064126</v>
+        <v>0.9570158921507981</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.84499234720677</v>
+        <v>0.9239890667413249</v>
       </c>
       <c r="D7">
-        <v>0.8614673828840899</v>
+        <v>0.9362887575893567</v>
       </c>
       <c r="E7">
-        <v>0.8656587673504784</v>
+        <v>0.938060069903914</v>
       </c>
       <c r="F7">
-        <v>0.8448155964139741</v>
+        <v>0.9374860824000981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.033712884311836</v>
+      </c>
       <c r="J7">
-        <v>0.8693991001962599</v>
+        <v>0.9455525806650744</v>
       </c>
       <c r="K7">
-        <v>0.8735820224053559</v>
+        <v>0.9472189382345455</v>
       </c>
       <c r="L7">
-        <v>0.8777000486204358</v>
+        <v>0.9489651061613709</v>
       </c>
       <c r="M7">
-        <v>0.8572310542917081</v>
+        <v>0.9483992534484421</v>
       </c>
       <c r="N7">
-        <v>0.8706337466400091</v>
+        <v>0.9468953737860158</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D8">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E8">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F8">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J8">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K8">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L8">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M8">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N8">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D9">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E9">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F9">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J9">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K9">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L9">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M9">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N9">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D10">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E10">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F10">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J10">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K10">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L10">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M10">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N10">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D11">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E11">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F11">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J11">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K11">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L11">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M11">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N11">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D12">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E12">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F12">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J12">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K12">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L12">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M12">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N12">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D13">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E13">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F13">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J13">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K13">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L13">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M13">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N13">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D14">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E14">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F14">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J14">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K14">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L14">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M14">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N14">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D15">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E15">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F15">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J15">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K15">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L15">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M15">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N15">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D16">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E16">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F16">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J16">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K16">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L16">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M16">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N16">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D17">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E17">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F17">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J17">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K17">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L17">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M17">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N17">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D18">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E18">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F18">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J18">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K18">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L18">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M18">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N18">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D19">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E19">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F19">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J19">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K19">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L19">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M19">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N19">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D20">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E20">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F20">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J20">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K20">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L20">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M20">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N20">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D21">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E21">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F21">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J21">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K21">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L21">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M21">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N21">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D22">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E22">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F22">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J22">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K22">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L22">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M22">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N22">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D23">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E23">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F23">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J23">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K23">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L23">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M23">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N23">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D24">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E24">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F24">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J24">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K24">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L24">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M24">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N24">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.7811038087682514</v>
+        <v>0.8677124304328606</v>
       </c>
       <c r="D25">
-        <v>0.8031334306548874</v>
+        <v>0.8808360702153056</v>
       </c>
       <c r="E25">
-        <v>0.8087299329921281</v>
+        <v>0.8894823430450187</v>
       </c>
       <c r="F25">
-        <v>0.7790221140100575</v>
+        <v>0.8801338064934958</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.024134370118786</v>
+      </c>
       <c r="J25">
-        <v>0.8117484251625043</v>
+        <v>0.8940034116510497</v>
       </c>
       <c r="K25">
-        <v>0.8178590852699846</v>
+        <v>0.8939151178366924</v>
       </c>
       <c r="L25">
-        <v>0.8233228151692271</v>
+        <v>0.9024013126279354</v>
       </c>
       <c r="M25">
-        <v>0.7943493748268852</v>
+        <v>0.8932260362713155</v>
       </c>
       <c r="N25">
-        <v>0.8129012010350808</v>
+        <v>0.8952729990392188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8489567722336193</v>
+        <v>1.022967534184863</v>
       </c>
       <c r="D2">
-        <v>0.8623830186136398</v>
+        <v>1.037991148033121</v>
       </c>
       <c r="E2">
-        <v>0.8733351810628468</v>
+        <v>1.035545089984325</v>
       </c>
       <c r="F2">
-        <v>0.8610477349620196</v>
+        <v>1.045291929266413</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.020964141385007</v>
+        <v>1.051829122935891</v>
       </c>
       <c r="J2">
-        <v>0.8768312292434096</v>
+        <v>1.04448233890637</v>
       </c>
       <c r="K2">
-        <v>0.8761629200637978</v>
+        <v>1.048945411649993</v>
       </c>
       <c r="L2">
-        <v>0.8868952173804134</v>
+        <v>1.046530477508003</v>
       </c>
       <c r="M2">
-        <v>0.8748549469057187</v>
+        <v>1.056154376522058</v>
       </c>
       <c r="N2">
-        <v>0.8780764301628832</v>
+        <v>1.01792729374148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8985752532836701</v>
+        <v>1.028919552562917</v>
       </c>
       <c r="D3">
-        <v>0.9112324532651167</v>
+        <v>1.043355632840555</v>
       </c>
       <c r="E3">
-        <v>0.9161014304048786</v>
+        <v>1.040610076664808</v>
       </c>
       <c r="F3">
-        <v>0.9115707870470487</v>
+        <v>1.05072276427821</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02938181318745</v>
+        <v>1.053289940647277</v>
       </c>
       <c r="J3">
-        <v>0.9222724827820125</v>
+        <v>1.048651728606765</v>
       </c>
       <c r="K3">
-        <v>0.9231430019500697</v>
+        <v>1.053462269458299</v>
       </c>
       <c r="L3">
-        <v>0.9279336745758812</v>
+        <v>1.050748430387151</v>
       </c>
       <c r="M3">
-        <v>0.923475859817977</v>
+        <v>1.060745304430836</v>
       </c>
       <c r="N3">
-        <v>0.9235822154936951</v>
+        <v>1.019375327569086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9238572071451607</v>
+        <v>1.032677953501964</v>
       </c>
       <c r="D4">
-        <v>0.9361586954808875</v>
+        <v>1.046748166872684</v>
       </c>
       <c r="E4">
-        <v>0.9379460558776321</v>
+        <v>1.043814050293496</v>
       </c>
       <c r="F4">
-        <v>0.9373515529031636</v>
+        <v>1.054157992043794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033690425155941</v>
+        <v>1.05420035841902</v>
       </c>
       <c r="J4">
-        <v>0.9454318031603202</v>
+        <v>1.051281146681949</v>
       </c>
       <c r="K4">
-        <v>0.9470940126594414</v>
+        <v>1.056313313672951</v>
       </c>
       <c r="L4">
-        <v>0.9488559838055216</v>
+        <v>1.053410943273615</v>
       </c>
       <c r="M4">
-        <v>0.9482699120871628</v>
+        <v>1.063643929764752</v>
       </c>
       <c r="N4">
-        <v>0.9467744247633513</v>
+        <v>1.020287758464599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9334608584749146</v>
+        <v>1.034236726328807</v>
       </c>
       <c r="D5">
-        <v>0.9456329287974676</v>
+        <v>1.048156376422428</v>
       </c>
       <c r="E5">
-        <v>0.9462520354275233</v>
+        <v>1.045144183353779</v>
       </c>
       <c r="F5">
-        <v>0.9471515425099143</v>
+        <v>1.055584095560554</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035325157473915</v>
+        <v>1.054575017185921</v>
       </c>
       <c r="J5">
-        <v>0.9542277247187247</v>
+        <v>1.052370831366402</v>
       </c>
       <c r="K5">
-        <v>0.9561926389171074</v>
+        <v>1.057495445225255</v>
       </c>
       <c r="L5">
-        <v>0.956803377467942</v>
+        <v>1.054514933155955</v>
       </c>
       <c r="M5">
-        <v>0.9576907509792212</v>
+        <v>1.064845985337908</v>
       </c>
       <c r="N5">
-        <v>0.9555828375392751</v>
+        <v>1.020665693585425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9350234357037756</v>
+        <v>1.034497232236581</v>
       </c>
       <c r="D6">
-        <v>0.9471747319984203</v>
+        <v>1.048391787572682</v>
       </c>
       <c r="E6">
-        <v>0.9476038591400104</v>
+        <v>1.045366553510884</v>
       </c>
       <c r="F6">
-        <v>0.9487464285607139</v>
+        <v>1.05582250807298</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035590899456495</v>
+        <v>1.054637457349743</v>
       </c>
       <c r="J6">
-        <v>0.9556587471143055</v>
+        <v>1.052552890813087</v>
       </c>
       <c r="K6">
-        <v>0.9576730315210354</v>
+        <v>1.057692985623593</v>
       </c>
       <c r="L6">
-        <v>0.9580964059680701</v>
+        <v>1.054699417285941</v>
       </c>
       <c r="M6">
-        <v>0.9592236904605291</v>
+        <v>1.065046866544664</v>
       </c>
       <c r="N6">
-        <v>0.9570158921507981</v>
+        <v>1.020728825466329</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9239890667413249</v>
+        <v>1.032698864165243</v>
       </c>
       <c r="D7">
-        <v>0.9362887575893567</v>
+        <v>1.046767053168658</v>
       </c>
       <c r="E7">
-        <v>0.938060069903914</v>
+        <v>1.043831888709891</v>
       </c>
       <c r="F7">
-        <v>0.9374860824000981</v>
+        <v>1.054177117650188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033712884311836</v>
+        <v>1.054205396051334</v>
       </c>
       <c r="J7">
-        <v>0.9455525806650744</v>
+        <v>1.051295768031034</v>
       </c>
       <c r="K7">
-        <v>0.9472189382345455</v>
+        <v>1.056329173093814</v>
       </c>
       <c r="L7">
-        <v>0.9489651061613709</v>
+        <v>1.053425754238605</v>
       </c>
       <c r="M7">
-        <v>0.9483992534484421</v>
+        <v>1.063660055716829</v>
       </c>
       <c r="N7">
-        <v>0.9468953737860158</v>
+        <v>1.020292830368614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8677124304328606</v>
+        <v>1.024998912487683</v>
       </c>
       <c r="D8">
-        <v>0.8808360702153056</v>
+        <v>1.039820893132498</v>
       </c>
       <c r="E8">
-        <v>0.8894823430450187</v>
+        <v>1.037272497610474</v>
       </c>
       <c r="F8">
-        <v>0.8801338064934958</v>
+        <v>1.047144148973903</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024134370118786</v>
+        <v>1.052330184937285</v>
       </c>
       <c r="J8">
-        <v>0.8940034116510497</v>
+        <v>1.045905992441881</v>
       </c>
       <c r="K8">
-        <v>0.8939151178366924</v>
+        <v>1.050487185107638</v>
       </c>
       <c r="L8">
-        <v>0.9024013126279354</v>
+        <v>1.047970192147304</v>
       </c>
       <c r="M8">
-        <v>0.8932260362713155</v>
+        <v>1.057721256675139</v>
       </c>
       <c r="N8">
-        <v>0.8952729990392188</v>
+        <v>1.018421885612109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8677124304328606</v>
+        <v>1.010670460678589</v>
       </c>
       <c r="D9">
-        <v>0.8808360702153056</v>
+        <v>1.0269390030093</v>
       </c>
       <c r="E9">
-        <v>0.8894823430450187</v>
+        <v>1.025115104924753</v>
       </c>
       <c r="F9">
-        <v>0.8801338064934958</v>
+        <v>1.034107331515104</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024134370118786</v>
+        <v>1.04874659505391</v>
       </c>
       <c r="J9">
-        <v>0.8940034116510497</v>
+        <v>1.035851963705275</v>
       </c>
       <c r="K9">
-        <v>0.8939151178366924</v>
+        <v>1.039609626898363</v>
       </c>
       <c r="L9">
-        <v>0.9024013126279354</v>
+        <v>1.037813437430157</v>
       </c>
       <c r="M9">
-        <v>0.8932260362713155</v>
+        <v>1.046670258632546</v>
       </c>
       <c r="N9">
-        <v>0.8952729990392188</v>
+        <v>1.014926160488862</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8677124304328606</v>
+        <v>1.00053347454472</v>
       </c>
       <c r="D10">
-        <v>0.8808360702153056</v>
+        <v>1.017859360095816</v>
       </c>
       <c r="E10">
-        <v>0.8894823430450187</v>
+        <v>1.016551734078583</v>
       </c>
       <c r="F10">
-        <v>0.8801338064934958</v>
+        <v>1.024922909492832</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024134370118786</v>
+        <v>1.046150776807808</v>
       </c>
       <c r="J10">
-        <v>0.8940034116510497</v>
+        <v>1.028725942562818</v>
       </c>
       <c r="K10">
-        <v>0.8939151178366924</v>
+        <v>1.031913475363896</v>
       </c>
       <c r="L10">
-        <v>0.9024013126279354</v>
+        <v>1.030628437141862</v>
       </c>
       <c r="M10">
-        <v>0.8932260362713155</v>
+        <v>1.038856295946768</v>
       </c>
       <c r="N10">
-        <v>0.8952729990392188</v>
+        <v>1.012445352963095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8677124304328606</v>
+        <v>0.9959869043317678</v>
       </c>
       <c r="D11">
-        <v>0.8808360702153056</v>
+        <v>1.013796104929677</v>
       </c>
       <c r="E11">
-        <v>0.8894823430450187</v>
+        <v>1.012721028303731</v>
       </c>
       <c r="F11">
-        <v>0.8801338064934958</v>
+        <v>1.020813890614418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024134370118786</v>
+        <v>1.044972956637526</v>
       </c>
       <c r="J11">
-        <v>0.8940034116510497</v>
+        <v>1.025527591035841</v>
       </c>
       <c r="K11">
-        <v>0.8939151178366924</v>
+        <v>1.028462453820624</v>
       </c>
       <c r="L11">
-        <v>0.9024013126279354</v>
+        <v>1.027406966949838</v>
       </c>
       <c r="M11">
-        <v>0.8932260362713155</v>
+        <v>1.035353679768006</v>
       </c>
       <c r="N11">
-        <v>0.8952729990392188</v>
+        <v>1.011331326042854</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8677124304328606</v>
+        <v>0.9942727372821941</v>
       </c>
       <c r="D12">
-        <v>0.8808360702153056</v>
+        <v>1.012265619388595</v>
       </c>
       <c r="E12">
-        <v>0.8894823430450187</v>
+        <v>1.011278379470935</v>
       </c>
       <c r="F12">
-        <v>0.8801338064934958</v>
+        <v>1.019266344000612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024134370118786</v>
+        <v>1.044526925747618</v>
       </c>
       <c r="J12">
-        <v>0.8940034116510497</v>
+        <v>1.024321478674354</v>
       </c>
       <c r="K12">
-        <v>0.8939151178366924</v>
+        <v>1.027161542741869</v>
       </c>
       <c r="L12">
-        <v>0.9024013126279354</v>
+        <v>1.026192647082065</v>
       </c>
       <c r="M12">
-        <v>0.8932260362713155</v>
+        <v>1.034033511174052</v>
       </c>
       <c r="N12">
-        <v>0.8952729990392188</v>
+        <v>1.010911150728101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8677124304328606</v>
+        <v>0.9946416099270244</v>
       </c>
       <c r="D13">
-        <v>0.8808360702153056</v>
+        <v>1.012594897951545</v>
       </c>
       <c r="E13">
-        <v>0.8894823430450187</v>
+        <v>1.011588748998796</v>
       </c>
       <c r="F13">
-        <v>0.8801338064934958</v>
+        <v>1.019599285096623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024134370118786</v>
+        <v>1.044622994875537</v>
       </c>
       <c r="J13">
-        <v>0.8940034116510497</v>
+        <v>1.024581032954994</v>
       </c>
       <c r="K13">
-        <v>0.8939151178366924</v>
+        <v>1.027441475740609</v>
       </c>
       <c r="L13">
-        <v>0.9024013126279354</v>
+        <v>1.02645394443088</v>
       </c>
       <c r="M13">
-        <v>0.8932260362713155</v>
+        <v>1.034317579274417</v>
       </c>
       <c r="N13">
-        <v>0.8952729990392188</v>
+        <v>1.011001575021161</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8677124304328606</v>
+        <v>0.9958457389991464</v>
       </c>
       <c r="D14">
-        <v>0.8808360702153056</v>
+        <v>1.01367003594218</v>
       </c>
       <c r="E14">
-        <v>0.8894823430450187</v>
+        <v>1.012602189546429</v>
       </c>
       <c r="F14">
-        <v>0.8801338064934958</v>
+        <v>1.020686412644704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024134370118786</v>
+        <v>1.044936264478394</v>
       </c>
       <c r="J14">
-        <v>0.8940034116510497</v>
+        <v>1.025428269820883</v>
       </c>
       <c r="K14">
-        <v>0.8939151178366924</v>
+        <v>1.028355316263555</v>
       </c>
       <c r="L14">
-        <v>0.9024013126279354</v>
+        <v>1.027306959450908</v>
       </c>
       <c r="M14">
-        <v>0.8932260362713155</v>
+        <v>1.035244952308355</v>
       </c>
       <c r="N14">
-        <v>0.8952729990392188</v>
+        <v>1.011296726699296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8677124304328606</v>
+        <v>0.9965842257760593</v>
       </c>
       <c r="D15">
-        <v>0.8808360702153056</v>
+        <v>1.014329608312436</v>
       </c>
       <c r="E15">
-        <v>0.8894823430450187</v>
+        <v>1.013223944550305</v>
       </c>
       <c r="F15">
-        <v>0.8801338064934958</v>
+        <v>1.021353363813126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024134370118786</v>
+        <v>1.045128134892162</v>
       </c>
       <c r="J15">
-        <v>0.8940034116510497</v>
+        <v>1.025947844977446</v>
       </c>
       <c r="K15">
-        <v>0.8939151178366924</v>
+        <v>1.0289158004572</v>
       </c>
       <c r="L15">
-        <v>0.9024013126279354</v>
+        <v>1.027830145566222</v>
       </c>
       <c r="M15">
-        <v>0.8932260362713155</v>
+        <v>1.035813761838407</v>
       </c>
       <c r="N15">
-        <v>0.8952729990392188</v>
+        <v>1.011477722088491</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8677124304328606</v>
+        <v>1.000831757878031</v>
       </c>
       <c r="D16">
-        <v>0.8808360702153056</v>
+        <v>1.018126131485167</v>
       </c>
       <c r="E16">
-        <v>0.8894823430450187</v>
+        <v>1.016803270308455</v>
       </c>
       <c r="F16">
-        <v>0.8801338064934958</v>
+        <v>1.025192709496677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024134370118786</v>
+        <v>1.046227773511647</v>
       </c>
       <c r="J16">
-        <v>0.8940034116510497</v>
+        <v>1.028935734447325</v>
       </c>
       <c r="K16">
-        <v>0.8939151178366924</v>
+        <v>1.032139907726921</v>
       </c>
       <c r="L16">
-        <v>0.9024013126279354</v>
+        <v>1.030839815659369</v>
       </c>
       <c r="M16">
-        <v>0.8932260362713155</v>
+        <v>1.039086139749628</v>
       </c>
       <c r="N16">
-        <v>0.8952729990392188</v>
+        <v>1.012518415532125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8677124304328606</v>
+        <v>1.003452853483781</v>
       </c>
       <c r="D17">
-        <v>0.8808360702153056</v>
+        <v>1.020471363819495</v>
       </c>
       <c r="E17">
-        <v>0.8894823430450187</v>
+        <v>1.019014741186347</v>
       </c>
       <c r="F17">
-        <v>0.8801338064934958</v>
+        <v>1.027564695559146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024134370118786</v>
+        <v>1.046902834880528</v>
       </c>
       <c r="J17">
-        <v>0.8940034116510497</v>
+        <v>1.030778987235246</v>
       </c>
       <c r="K17">
-        <v>0.8939151178366924</v>
+        <v>1.034129730443861</v>
       </c>
       <c r="L17">
-        <v>0.9024013126279354</v>
+        <v>1.032697389546723</v>
       </c>
       <c r="M17">
-        <v>0.8932260362713155</v>
+        <v>1.041106081770106</v>
       </c>
       <c r="N17">
-        <v>0.8952729990392188</v>
+        <v>1.013160287479626</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8677124304328606</v>
+        <v>1.004966654813608</v>
       </c>
       <c r="D18">
-        <v>0.8808360702153056</v>
+        <v>1.021826693065598</v>
       </c>
       <c r="E18">
-        <v>0.8894823430450187</v>
+        <v>1.020292910376178</v>
       </c>
       <c r="F18">
-        <v>0.8801338064934958</v>
+        <v>1.028935592036396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024134370118786</v>
+        <v>1.0472914271501</v>
       </c>
       <c r="J18">
-        <v>0.8940034116510497</v>
+        <v>1.031843332164491</v>
       </c>
       <c r="K18">
-        <v>0.8939151178366924</v>
+        <v>1.035279012912066</v>
       </c>
       <c r="L18">
-        <v>0.9024013126279354</v>
+        <v>1.033770319995959</v>
       </c>
       <c r="M18">
-        <v>0.8932260362713155</v>
+        <v>1.042272876588321</v>
       </c>
       <c r="N18">
-        <v>0.8952729990392188</v>
+        <v>1.013530866857036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8677124304328606</v>
+        <v>1.005480321508098</v>
       </c>
       <c r="D19">
-        <v>0.8808360702153056</v>
+        <v>1.022286728349336</v>
       </c>
       <c r="E19">
-        <v>0.8894823430450187</v>
+        <v>1.020726779040587</v>
       </c>
       <c r="F19">
-        <v>0.8801338064934958</v>
+        <v>1.029400929037184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024134370118786</v>
+        <v>1.047423064929369</v>
       </c>
       <c r="J19">
-        <v>0.8940034116510497</v>
+        <v>1.032204449156515</v>
       </c>
       <c r="K19">
-        <v>0.8939151178366924</v>
+        <v>1.035668999556732</v>
       </c>
       <c r="L19">
-        <v>0.9024013126279354</v>
+        <v>1.034134403362719</v>
       </c>
       <c r="M19">
-        <v>0.8932260362713155</v>
+        <v>1.042668825205029</v>
       </c>
       <c r="N19">
-        <v>0.8952729990392188</v>
+        <v>1.01365658933557</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8677124304328606</v>
+        <v>1.003173202453713</v>
       </c>
       <c r="D20">
-        <v>0.8808360702153056</v>
+        <v>1.020221056252079</v>
       </c>
       <c r="E20">
-        <v>0.8894823430450187</v>
+        <v>1.018778695199249</v>
       </c>
       <c r="F20">
-        <v>0.8801338064934958</v>
+        <v>1.027311521499819</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024134370118786</v>
+        <v>1.046830943991971</v>
       </c>
       <c r="J20">
-        <v>0.8940034116510497</v>
+        <v>1.030582348117281</v>
       </c>
       <c r="K20">
-        <v>0.8939151178366924</v>
+        <v>1.033917423601899</v>
       </c>
       <c r="L20">
-        <v>0.9024013126279354</v>
+        <v>1.032499189774877</v>
       </c>
       <c r="M20">
-        <v>0.8932260362713155</v>
+        <v>1.040890549216041</v>
       </c>
       <c r="N20">
-        <v>0.8952729990392188</v>
+        <v>1.013091817885735</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8677124304328606</v>
+        <v>0.9954918682273168</v>
       </c>
       <c r="D21">
-        <v>0.8808360702153056</v>
+        <v>1.013354032260966</v>
       </c>
       <c r="E21">
-        <v>0.8894823430450187</v>
+        <v>1.012304313090819</v>
       </c>
       <c r="F21">
-        <v>0.8801338064934958</v>
+        <v>1.020366880085839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024134370118786</v>
+        <v>1.044844253863229</v>
       </c>
       <c r="J21">
-        <v>0.8940034116510497</v>
+        <v>1.025179289302573</v>
       </c>
       <c r="K21">
-        <v>0.8939151178366924</v>
+        <v>1.028086749370128</v>
       </c>
       <c r="L21">
-        <v>0.9024013126279354</v>
+        <v>1.027056266785264</v>
       </c>
       <c r="M21">
-        <v>0.8932260362713155</v>
+        <v>1.034972403040139</v>
       </c>
       <c r="N21">
-        <v>0.8952729990392188</v>
+        <v>1.011209991246733</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8677124304328606</v>
+        <v>0.9905145373703316</v>
       </c>
       <c r="D22">
-        <v>0.8808360702153056</v>
+        <v>1.008912930304252</v>
       </c>
       <c r="E22">
-        <v>0.8894823430450187</v>
+        <v>1.008118573555545</v>
       </c>
       <c r="F22">
-        <v>0.8801338064934958</v>
+        <v>1.015876614428941</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024134370118786</v>
+        <v>1.04354550029297</v>
       </c>
       <c r="J22">
-        <v>0.8940034116510497</v>
+        <v>1.021676777247246</v>
       </c>
       <c r="K22">
-        <v>0.8939151178366924</v>
+        <v>1.024309864240325</v>
       </c>
       <c r="L22">
-        <v>0.9024013126279354</v>
+        <v>1.023530897507251</v>
       </c>
       <c r="M22">
-        <v>0.8932260362713155</v>
+        <v>1.03113998000556</v>
       </c>
       <c r="N22">
-        <v>0.8952729990392188</v>
+        <v>1.009989698779199</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8677124304328606</v>
+        <v>0.9931677528511046</v>
       </c>
       <c r="D23">
-        <v>0.8808360702153056</v>
+        <v>1.011279463624274</v>
       </c>
       <c r="E23">
-        <v>0.8894823430450187</v>
+        <v>1.01034889137246</v>
       </c>
       <c r="F23">
-        <v>0.8801338064934958</v>
+        <v>1.018269245791027</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024134370118786</v>
+        <v>1.044238861835397</v>
       </c>
       <c r="J23">
-        <v>0.8940034116510497</v>
+        <v>1.023543934144158</v>
       </c>
       <c r="K23">
-        <v>0.8939151178366924</v>
+        <v>1.026323020892726</v>
       </c>
       <c r="L23">
-        <v>0.9024013126279354</v>
+        <v>1.025409956279893</v>
       </c>
       <c r="M23">
-        <v>0.8932260362713155</v>
+        <v>1.03318263153803</v>
       </c>
       <c r="N23">
-        <v>0.8952729990392188</v>
+        <v>1.010640258274621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8677124304328606</v>
+        <v>1.003299611063438</v>
       </c>
       <c r="D24">
-        <v>0.8808360702153056</v>
+        <v>1.020334198315966</v>
       </c>
       <c r="E24">
-        <v>0.8894823430450187</v>
+        <v>1.018885390416747</v>
       </c>
       <c r="F24">
-        <v>0.8801338064934958</v>
+        <v>1.027425958924507</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024134370118786</v>
+        <v>1.046863444301336</v>
       </c>
       <c r="J24">
-        <v>0.8940034116510497</v>
+        <v>1.030671234138793</v>
       </c>
       <c r="K24">
-        <v>0.8939151178366924</v>
+        <v>1.034013390900726</v>
       </c>
       <c r="L24">
-        <v>0.9024013126279354</v>
+        <v>1.032588780272185</v>
       </c>
       <c r="M24">
-        <v>0.8932260362713155</v>
+        <v>1.040987974247154</v>
       </c>
       <c r="N24">
-        <v>0.8952729990392188</v>
+        <v>1.013122768104326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8677124304328606</v>
+        <v>1.014471978619299</v>
       </c>
       <c r="D25">
-        <v>0.8808360702153056</v>
+        <v>1.030351227996557</v>
       </c>
       <c r="E25">
-        <v>0.8894823430450187</v>
+        <v>1.028334510942558</v>
       </c>
       <c r="F25">
-        <v>0.8801338064934958</v>
+        <v>1.037559859260625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024134370118786</v>
+        <v>1.049707987884454</v>
       </c>
       <c r="J25">
-        <v>0.8940034116510497</v>
+        <v>1.03852192926389</v>
       </c>
       <c r="K25">
-        <v>0.8939151178366924</v>
+        <v>1.04249596684638</v>
       </c>
       <c r="L25">
-        <v>0.9024013126279354</v>
+        <v>1.040508335554041</v>
       </c>
       <c r="M25">
-        <v>0.8932260362713155</v>
+        <v>1.049601801470245</v>
       </c>
       <c r="N25">
-        <v>0.8952729990392188</v>
+        <v>1.015855081225118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022967534184863</v>
+        <v>1.062193222105793</v>
       </c>
       <c r="D2">
-        <v>1.037991148033121</v>
+        <v>1.071922342791158</v>
       </c>
       <c r="E2">
-        <v>1.035545089984325</v>
+        <v>1.068113397621157</v>
       </c>
       <c r="F2">
-        <v>1.045291929266413</v>
+        <v>1.079679277943972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051829122935891</v>
+        <v>1.043509016713692</v>
       </c>
       <c r="J2">
-        <v>1.04448233890637</v>
+        <v>1.067165007485296</v>
       </c>
       <c r="K2">
-        <v>1.048945411649993</v>
+        <v>1.074618227955066</v>
       </c>
       <c r="L2">
-        <v>1.046530477508003</v>
+        <v>1.070819449833063</v>
       </c>
       <c r="M2">
-        <v>1.056154376522058</v>
+        <v>1.082354697468612</v>
       </c>
       <c r="N2">
-        <v>1.01792729374148</v>
+        <v>1.026012963628157</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028919552562917</v>
+        <v>1.063436798694366</v>
       </c>
       <c r="D3">
-        <v>1.043355632840555</v>
+        <v>1.073092899128294</v>
       </c>
       <c r="E3">
-        <v>1.040610076664808</v>
+        <v>1.06921986804821</v>
       </c>
       <c r="F3">
-        <v>1.05072276427821</v>
+        <v>1.080868974498445</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053289940647277</v>
+        <v>1.043737231411955</v>
       </c>
       <c r="J3">
-        <v>1.048651728606765</v>
+        <v>1.068061521644544</v>
       </c>
       <c r="K3">
-        <v>1.053462269458299</v>
+        <v>1.07560455704297</v>
       </c>
       <c r="L3">
-        <v>1.050748430387151</v>
+        <v>1.071741113415765</v>
       </c>
       <c r="M3">
-        <v>1.060745304430836</v>
+        <v>1.083361606290908</v>
       </c>
       <c r="N3">
-        <v>1.019375327569086</v>
+        <v>1.026319030555606</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032677953501964</v>
+        <v>1.064241303195013</v>
       </c>
       <c r="D4">
-        <v>1.046748166872684</v>
+        <v>1.073850434440089</v>
       </c>
       <c r="E4">
-        <v>1.043814050293496</v>
+        <v>1.069935963853285</v>
       </c>
       <c r="F4">
-        <v>1.054157992043794</v>
+        <v>1.081638961030051</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05420035841902</v>
+        <v>1.0438833497747</v>
       </c>
       <c r="J4">
-        <v>1.051281146681949</v>
+        <v>1.068640915186397</v>
       </c>
       <c r="K4">
-        <v>1.056313313672951</v>
+        <v>1.076242302801203</v>
       </c>
       <c r="L4">
-        <v>1.053410943273615</v>
+        <v>1.072337032408312</v>
       </c>
       <c r="M4">
-        <v>1.063643929764752</v>
+        <v>1.084012736314587</v>
       </c>
       <c r="N4">
-        <v>1.020287758464599</v>
+        <v>1.026516655769923</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034236726328807</v>
+        <v>1.064579477498714</v>
       </c>
       <c r="D5">
-        <v>1.048156376422428</v>
+        <v>1.074168929181758</v>
       </c>
       <c r="E5">
-        <v>1.045144183353779</v>
+        <v>1.070237044031527</v>
       </c>
       <c r="F5">
-        <v>1.055584095560554</v>
+        <v>1.081962706088641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054575017185921</v>
+        <v>1.043944406660332</v>
       </c>
       <c r="J5">
-        <v>1.052370831366402</v>
+        <v>1.068884323089063</v>
       </c>
       <c r="K5">
-        <v>1.057495445225255</v>
+        <v>1.076510298514093</v>
       </c>
       <c r="L5">
-        <v>1.054514933155955</v>
+        <v>1.072587447895828</v>
       </c>
       <c r="M5">
-        <v>1.064845985337908</v>
+        <v>1.084286374974266</v>
       </c>
       <c r="N5">
-        <v>1.020665693585425</v>
+        <v>1.026599636989721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034497232236581</v>
+        <v>1.064636256199522</v>
       </c>
       <c r="D6">
-        <v>1.048391787572682</v>
+        <v>1.074222407464143</v>
       </c>
       <c r="E6">
-        <v>1.045366553510884</v>
+        <v>1.070287598714039</v>
       </c>
       <c r="F6">
-        <v>1.05582250807298</v>
+        <v>1.082017066849433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054637457349743</v>
+        <v>1.043954636615126</v>
       </c>
       <c r="J6">
-        <v>1.052552890813087</v>
+        <v>1.068925182459999</v>
       </c>
       <c r="K6">
-        <v>1.057692985623593</v>
+        <v>1.076555289603486</v>
       </c>
       <c r="L6">
-        <v>1.054699417285941</v>
+        <v>1.07262948740434</v>
       </c>
       <c r="M6">
-        <v>1.065046866544664</v>
+        <v>1.084332314488448</v>
       </c>
       <c r="N6">
-        <v>1.020728825466329</v>
+        <v>1.026613564020533</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032698864165243</v>
+        <v>1.064245822048929</v>
       </c>
       <c r="D7">
-        <v>1.046767053168658</v>
+        <v>1.073854690075158</v>
       </c>
       <c r="E7">
-        <v>1.043831888709891</v>
+        <v>1.069939986768383</v>
       </c>
       <c r="F7">
-        <v>1.054177117650188</v>
+        <v>1.08164328675797</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054205396051334</v>
+        <v>1.043884167078359</v>
       </c>
       <c r="J7">
-        <v>1.051295768031034</v>
+        <v>1.068644168277964</v>
       </c>
       <c r="K7">
-        <v>1.056329173093814</v>
+        <v>1.076245884214073</v>
       </c>
       <c r="L7">
-        <v>1.053425754238605</v>
+        <v>1.072340378898773</v>
       </c>
       <c r="M7">
-        <v>1.063660055716829</v>
+        <v>1.084016393065164</v>
       </c>
       <c r="N7">
-        <v>1.020292830368614</v>
+        <v>1.026517764963301</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024998912487683</v>
+        <v>1.062613531575504</v>
       </c>
       <c r="D8">
-        <v>1.039820893132498</v>
+        <v>1.072317916371206</v>
       </c>
       <c r="E8">
-        <v>1.037272497610474</v>
+        <v>1.068487307084083</v>
       </c>
       <c r="F8">
-        <v>1.047144148973903</v>
+        <v>1.080081306321536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052330184937285</v>
+        <v>1.043586464391374</v>
       </c>
       <c r="J8">
-        <v>1.045905992441881</v>
+        <v>1.067468136530141</v>
       </c>
       <c r="K8">
-        <v>1.050487185107638</v>
+        <v>1.074951661550978</v>
       </c>
       <c r="L8">
-        <v>1.047970192147304</v>
+        <v>1.071131026006331</v>
       </c>
       <c r="M8">
-        <v>1.057721256675139</v>
+        <v>1.082695072025326</v>
       </c>
       <c r="N8">
-        <v>1.018421885612109</v>
+        <v>1.0261164876155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010670460678589</v>
+        <v>1.05973581654328</v>
       </c>
       <c r="D9">
-        <v>1.0269390030093</v>
+        <v>1.069610688081723</v>
       </c>
       <c r="E9">
-        <v>1.025115104924753</v>
+        <v>1.065928488672691</v>
       </c>
       <c r="F9">
-        <v>1.034107331515104</v>
+        <v>1.077330168990712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04874659505391</v>
+        <v>1.043049978589529</v>
       </c>
       <c r="J9">
-        <v>1.035851963705275</v>
+        <v>1.06539032325106</v>
       </c>
       <c r="K9">
-        <v>1.039609626898363</v>
+        <v>1.072667385576384</v>
       </c>
       <c r="L9">
-        <v>1.037813437430157</v>
+        <v>1.068996430273102</v>
       </c>
       <c r="M9">
-        <v>1.046670258632546</v>
+        <v>1.080363565855598</v>
       </c>
       <c r="N9">
-        <v>1.014926160488862</v>
+        <v>1.025406152793433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00053347454472</v>
+        <v>1.057816266130723</v>
       </c>
       <c r="D10">
-        <v>1.017859360095816</v>
+        <v>1.06780630021494</v>
       </c>
       <c r="E10">
-        <v>1.016551734078583</v>
+        <v>1.064223203877678</v>
       </c>
       <c r="F10">
-        <v>1.024922909492832</v>
+        <v>1.075496852006688</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046150776807808</v>
+        <v>1.042684307309748</v>
       </c>
       <c r="J10">
-        <v>1.028725942562818</v>
+        <v>1.064001348740356</v>
       </c>
       <c r="K10">
-        <v>1.031913475363896</v>
+        <v>1.071141979333286</v>
       </c>
       <c r="L10">
-        <v>1.030628437141862</v>
+        <v>1.067570904936525</v>
       </c>
       <c r="M10">
-        <v>1.038856295946768</v>
+        <v>1.078807024632128</v>
       </c>
       <c r="N10">
-        <v>1.012445352963095</v>
+        <v>1.024930404931282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9959869043317678</v>
+        <v>1.056984796325936</v>
       </c>
       <c r="D11">
-        <v>1.013796104929677</v>
+        <v>1.067025063419381</v>
       </c>
       <c r="E11">
-        <v>1.012721028303731</v>
+        <v>1.06348492108546</v>
       </c>
       <c r="F11">
-        <v>1.020813890614418</v>
+        <v>1.074703170441971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044972956637526</v>
+        <v>1.042524062778671</v>
       </c>
       <c r="J11">
-        <v>1.025527591035841</v>
+        <v>1.063398997721227</v>
       </c>
       <c r="K11">
-        <v>1.028462453820624</v>
+        <v>1.070480838082569</v>
       </c>
       <c r="L11">
-        <v>1.027406966949838</v>
+        <v>1.066953037223678</v>
       </c>
       <c r="M11">
-        <v>1.035353679768006</v>
+        <v>1.078132485413961</v>
       </c>
       <c r="N11">
-        <v>1.011331326042854</v>
+        <v>1.024723876831946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9942727372821941</v>
+        <v>1.05667590501555</v>
       </c>
       <c r="D12">
-        <v>1.012265619388595</v>
+        <v>1.066734886812602</v>
       </c>
       <c r="E12">
-        <v>1.011278379470935</v>
+        <v>1.063210706001156</v>
       </c>
       <c r="F12">
-        <v>1.019266344000612</v>
+        <v>1.074408383603045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044526925747618</v>
+        <v>1.04246425399379</v>
       </c>
       <c r="J12">
-        <v>1.024321478674354</v>
+        <v>1.063175118607264</v>
       </c>
       <c r="K12">
-        <v>1.027161542741869</v>
+        <v>1.070235164496992</v>
       </c>
       <c r="L12">
-        <v>1.026192647082065</v>
+        <v>1.066723441179799</v>
       </c>
       <c r="M12">
-        <v>1.034033511174052</v>
+        <v>1.077881847830332</v>
       </c>
       <c r="N12">
-        <v>1.010911150728101</v>
+        <v>1.024647083644058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9946416099270244</v>
+        <v>1.05674216539126</v>
       </c>
       <c r="D13">
-        <v>1.012594897951545</v>
+        <v>1.066797130277033</v>
       </c>
       <c r="E13">
-        <v>1.011588748998796</v>
+        <v>1.063269525367389</v>
       </c>
       <c r="F13">
-        <v>1.019599285096623</v>
+        <v>1.074471615420417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044622994875537</v>
+        <v>1.042477096167456</v>
       </c>
       <c r="J13">
-        <v>1.024581032954994</v>
+        <v>1.06322314775744</v>
       </c>
       <c r="K13">
-        <v>1.027441475740609</v>
+        <v>1.070287866697953</v>
       </c>
       <c r="L13">
-        <v>1.02645394443088</v>
+        <v>1.066772694518077</v>
       </c>
       <c r="M13">
-        <v>1.034317579274417</v>
+        <v>1.07793561425489</v>
       </c>
       <c r="N13">
-        <v>1.011001575021161</v>
+        <v>1.024663559645713</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9958457389991464</v>
+        <v>1.056959264235323</v>
       </c>
       <c r="D14">
-        <v>1.01367003594218</v>
+        <v>1.067001077146424</v>
       </c>
       <c r="E14">
-        <v>1.012602189546429</v>
+        <v>1.06346225406317</v>
       </c>
       <c r="F14">
-        <v>1.020686412644704</v>
+        <v>1.074678802834508</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044936264478394</v>
+        <v>1.04251912481949</v>
       </c>
       <c r="J14">
-        <v>1.025428269820883</v>
+        <v>1.063380494650783</v>
       </c>
       <c r="K14">
-        <v>1.028355316263555</v>
+        <v>1.070460532600834</v>
       </c>
       <c r="L14">
-        <v>1.027306959450908</v>
+        <v>1.066934060637698</v>
       </c>
       <c r="M14">
-        <v>1.035244952308355</v>
+        <v>1.07811176934931</v>
       </c>
       <c r="N14">
-        <v>1.011296726699296</v>
+        <v>1.024717530706342</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9965842257760593</v>
+        <v>1.057093019772632</v>
       </c>
       <c r="D15">
-        <v>1.014329608312436</v>
+        <v>1.067126736753197</v>
       </c>
       <c r="E15">
-        <v>1.013223944550305</v>
+        <v>1.063581002650074</v>
       </c>
       <c r="F15">
-        <v>1.021353363813126</v>
+        <v>1.074806460679819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045128134892162</v>
+        <v>1.042544982038988</v>
       </c>
       <c r="J15">
-        <v>1.025947844977446</v>
+        <v>1.0634774227837</v>
       </c>
       <c r="K15">
-        <v>1.0289158004572</v>
+        <v>1.070566904955432</v>
       </c>
       <c r="L15">
-        <v>1.027830145566222</v>
+        <v>1.067033471333968</v>
       </c>
       <c r="M15">
-        <v>1.035813761838407</v>
+        <v>1.078220293180997</v>
       </c>
       <c r="N15">
-        <v>1.011477722088491</v>
+        <v>1.024750773517046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000831757878031</v>
+        <v>1.057871441676586</v>
       </c>
       <c r="D16">
-        <v>1.018126131485167</v>
+        <v>1.067858149760014</v>
       </c>
       <c r="E16">
-        <v>1.016803270308455</v>
+        <v>1.06427220360522</v>
       </c>
       <c r="F16">
-        <v>1.025192709496677</v>
+        <v>1.075549529194638</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046227773511647</v>
+        <v>1.042694902009941</v>
       </c>
       <c r="J16">
-        <v>1.028935734447325</v>
+        <v>1.064041305367007</v>
       </c>
       <c r="K16">
-        <v>1.032139907726921</v>
+        <v>1.071185843685345</v>
       </c>
       <c r="L16">
-        <v>1.030839815659369</v>
+        <v>1.067611897894264</v>
       </c>
       <c r="M16">
-        <v>1.039086139749628</v>
+        <v>1.078851779928941</v>
       </c>
       <c r="N16">
-        <v>1.012518415532125</v>
+        <v>1.024944100401021</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003452853483781</v>
+        <v>1.058359645237542</v>
       </c>
       <c r="D17">
-        <v>1.020471363819495</v>
+        <v>1.068316964674331</v>
       </c>
       <c r="E17">
-        <v>1.019014741186347</v>
+        <v>1.064705805890391</v>
       </c>
       <c r="F17">
-        <v>1.027564695559146</v>
+        <v>1.076015677203876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046902834880528</v>
+        <v>1.042788432147282</v>
       </c>
       <c r="J17">
-        <v>1.030778987235246</v>
+        <v>1.064394767729502</v>
       </c>
       <c r="K17">
-        <v>1.034129730443861</v>
+        <v>1.07157391772925</v>
       </c>
       <c r="L17">
-        <v>1.032697389546723</v>
+        <v>1.06797456637545</v>
       </c>
       <c r="M17">
-        <v>1.041106081770106</v>
+        <v>1.079247747439629</v>
       </c>
       <c r="N17">
-        <v>1.013160287479626</v>
+        <v>1.025065228097258</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.004966654813608</v>
+        <v>1.058644378134124</v>
       </c>
       <c r="D18">
-        <v>1.021826693065598</v>
+        <v>1.068584591013292</v>
       </c>
       <c r="E18">
-        <v>1.020292910376178</v>
+        <v>1.064958730139384</v>
       </c>
       <c r="F18">
-        <v>1.028935592036396</v>
+        <v>1.076287588696732</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0472914271501</v>
+        <v>1.042842802776956</v>
       </c>
       <c r="J18">
-        <v>1.031843332164491</v>
+        <v>1.064600848079536</v>
       </c>
       <c r="K18">
-        <v>1.035279012912066</v>
+        <v>1.071800214049502</v>
       </c>
       <c r="L18">
-        <v>1.033770319995959</v>
+        <v>1.068186046409287</v>
       </c>
       <c r="M18">
-        <v>1.042272876588321</v>
+        <v>1.079478655957791</v>
       </c>
       <c r="N18">
-        <v>1.013530866857036</v>
+        <v>1.025135829096958</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005480321508098</v>
+        <v>1.058741460024637</v>
       </c>
       <c r="D19">
-        <v>1.022286728349336</v>
+        <v>1.068675845979952</v>
       </c>
       <c r="E19">
-        <v>1.020726779040587</v>
+        <v>1.06504497274668</v>
       </c>
       <c r="F19">
-        <v>1.029400929037184</v>
+        <v>1.076380306126417</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047423064929369</v>
+        <v>1.042861310573224</v>
       </c>
       <c r="J19">
-        <v>1.032204449156515</v>
+        <v>1.064671101227479</v>
       </c>
       <c r="K19">
-        <v>1.035668999556732</v>
+        <v>1.071877364997988</v>
       </c>
       <c r="L19">
-        <v>1.034134403362719</v>
+        <v>1.06825814578082</v>
       </c>
       <c r="M19">
-        <v>1.042668825205029</v>
+        <v>1.079557380914826</v>
       </c>
       <c r="N19">
-        <v>1.01365658933557</v>
+        <v>1.025159893619832</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003173202453713</v>
+        <v>1.058307268529705</v>
       </c>
       <c r="D20">
-        <v>1.020221056252079</v>
+        <v>1.068267737428477</v>
       </c>
       <c r="E20">
-        <v>1.018778695199249</v>
+        <v>1.064659283304555</v>
       </c>
       <c r="F20">
-        <v>1.027311521499819</v>
+        <v>1.075965662370679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046830943991971</v>
+        <v>1.04277841627541</v>
       </c>
       <c r="J20">
-        <v>1.030582348117281</v>
+        <v>1.064356853704828</v>
       </c>
       <c r="K20">
-        <v>1.033917423601899</v>
+        <v>1.071532287348427</v>
       </c>
       <c r="L20">
-        <v>1.032499189774877</v>
+        <v>1.067935661527002</v>
       </c>
       <c r="M20">
-        <v>1.040890549216041</v>
+        <v>1.079205269329354</v>
       </c>
       <c r="N20">
-        <v>1.013091817885735</v>
+        <v>1.025052237492957</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9954918682273168</v>
+        <v>1.056895335338369</v>
       </c>
       <c r="D21">
-        <v>1.013354032260966</v>
+        <v>1.066941019627838</v>
       </c>
       <c r="E21">
-        <v>1.012304313090819</v>
+        <v>1.063405499836056</v>
       </c>
       <c r="F21">
-        <v>1.020366880085839</v>
+        <v>1.074617790716239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044844253863229</v>
+        <v>1.042506756350231</v>
       </c>
       <c r="J21">
-        <v>1.025179289302573</v>
+        <v>1.063334163765275</v>
       </c>
       <c r="K21">
-        <v>1.028086749370128</v>
+        <v>1.07040968946687</v>
       </c>
       <c r="L21">
-        <v>1.027056266785264</v>
+        <v>1.066886544901524</v>
       </c>
       <c r="M21">
-        <v>1.034972403040139</v>
+        <v>1.078059898387234</v>
       </c>
       <c r="N21">
-        <v>1.011209991246733</v>
+        <v>1.024701639770864</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9905145373703316</v>
+        <v>1.056007327151375</v>
       </c>
       <c r="D22">
-        <v>1.008912930304252</v>
+        <v>1.066106913718068</v>
       </c>
       <c r="E22">
-        <v>1.008118573555545</v>
+        <v>1.062617288314339</v>
       </c>
       <c r="F22">
-        <v>1.015876614428941</v>
+        <v>1.073770455771328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04354550029297</v>
+        <v>1.042334293253392</v>
       </c>
       <c r="J22">
-        <v>1.021676777247246</v>
+        <v>1.062690352313032</v>
       </c>
       <c r="K22">
-        <v>1.024309864240325</v>
+        <v>1.06970330973818</v>
       </c>
       <c r="L22">
-        <v>1.023530897507251</v>
+        <v>1.066226387948093</v>
       </c>
       <c r="M22">
-        <v>1.03113998000556</v>
+        <v>1.077339273267337</v>
       </c>
       <c r="N22">
-        <v>1.009989698779199</v>
+        <v>1.024480745154267</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9931677528511046</v>
+        <v>1.05647810351958</v>
       </c>
       <c r="D23">
-        <v>1.011279463624274</v>
+        <v>1.0665490844895</v>
       </c>
       <c r="E23">
-        <v>1.01034889137246</v>
+        <v>1.063035125955556</v>
       </c>
       <c r="F23">
-        <v>1.018269245791027</v>
+        <v>1.074219632742476</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044238861835397</v>
+        <v>1.04242587666311</v>
       </c>
       <c r="J23">
-        <v>1.023543934144158</v>
+        <v>1.063031725826193</v>
       </c>
       <c r="K23">
-        <v>1.026323020892726</v>
+        <v>1.070077828412759</v>
       </c>
       <c r="L23">
-        <v>1.025409956279893</v>
+        <v>1.066576400901065</v>
       </c>
       <c r="M23">
-        <v>1.03318263153803</v>
+        <v>1.077721336769537</v>
       </c>
       <c r="N23">
-        <v>1.010640258274621</v>
+        <v>1.024597889302158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.003299611063438</v>
+        <v>1.058330935395921</v>
       </c>
       <c r="D24">
-        <v>1.020334198315966</v>
+        <v>1.068289981079259</v>
       </c>
       <c r="E24">
-        <v>1.018885390416747</v>
+        <v>1.064680304823515</v>
       </c>
       <c r="F24">
-        <v>1.027425958924507</v>
+        <v>1.075988261873928</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046863444301336</v>
+        <v>1.042782942585098</v>
       </c>
       <c r="J24">
-        <v>1.030671234138793</v>
+        <v>1.064373985693376</v>
       </c>
       <c r="K24">
-        <v>1.034013390900726</v>
+        <v>1.071551098513199</v>
       </c>
       <c r="L24">
-        <v>1.032588780272185</v>
+        <v>1.067953241133757</v>
       </c>
       <c r="M24">
-        <v>1.040987974247154</v>
+        <v>1.07922446352164</v>
       </c>
       <c r="N24">
-        <v>1.013122768104326</v>
+        <v>1.025058107544672</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014471978619299</v>
+        <v>1.060479954913092</v>
       </c>
       <c r="D25">
-        <v>1.030351227996557</v>
+        <v>1.070310489475943</v>
       </c>
       <c r="E25">
-        <v>1.028334510942558</v>
+        <v>1.066589894645995</v>
       </c>
       <c r="F25">
-        <v>1.037559859260625</v>
+        <v>1.07804126149346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049707987884454</v>
+        <v>1.043190084376544</v>
       </c>
       <c r="J25">
-        <v>1.03852192926389</v>
+        <v>1.065928146286071</v>
       </c>
       <c r="K25">
-        <v>1.04249596684638</v>
+        <v>1.073258370636314</v>
       </c>
       <c r="L25">
-        <v>1.040508335554041</v>
+        <v>1.069548703366437</v>
       </c>
       <c r="M25">
-        <v>1.049601801470245</v>
+        <v>1.080966699173843</v>
       </c>
       <c r="N25">
-        <v>1.015855081225118</v>
+        <v>1.025590176298226</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062193222105793</v>
+        <v>1.022967534184863</v>
       </c>
       <c r="D2">
-        <v>1.071922342791158</v>
+        <v>1.037991148033121</v>
       </c>
       <c r="E2">
-        <v>1.068113397621157</v>
+        <v>1.035545089984325</v>
       </c>
       <c r="F2">
-        <v>1.079679277943972</v>
+        <v>1.045291929266413</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043509016713692</v>
+        <v>1.051829122935891</v>
       </c>
       <c r="J2">
-        <v>1.067165007485296</v>
+        <v>1.044482338906369</v>
       </c>
       <c r="K2">
-        <v>1.074618227955066</v>
+        <v>1.048945411649993</v>
       </c>
       <c r="L2">
-        <v>1.070819449833063</v>
+        <v>1.046530477508002</v>
       </c>
       <c r="M2">
-        <v>1.082354697468612</v>
+        <v>1.056154376522058</v>
       </c>
       <c r="N2">
-        <v>1.026012963628157</v>
+        <v>1.01792729374148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063436798694366</v>
+        <v>1.028919552562918</v>
       </c>
       <c r="D3">
-        <v>1.073092899128294</v>
+        <v>1.043355632840556</v>
       </c>
       <c r="E3">
-        <v>1.06921986804821</v>
+        <v>1.040610076664809</v>
       </c>
       <c r="F3">
-        <v>1.080868974498445</v>
+        <v>1.050722764278211</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043737231411955</v>
+        <v>1.053289940647278</v>
       </c>
       <c r="J3">
-        <v>1.068061521644544</v>
+        <v>1.048651728606766</v>
       </c>
       <c r="K3">
-        <v>1.07560455704297</v>
+        <v>1.0534622694583</v>
       </c>
       <c r="L3">
-        <v>1.071741113415765</v>
+        <v>1.050748430387152</v>
       </c>
       <c r="M3">
-        <v>1.083361606290908</v>
+        <v>1.060745304430836</v>
       </c>
       <c r="N3">
-        <v>1.026319030555606</v>
+        <v>1.019375327569087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064241303195013</v>
+        <v>1.032677953501963</v>
       </c>
       <c r="D4">
-        <v>1.073850434440089</v>
+        <v>1.046748166872683</v>
       </c>
       <c r="E4">
-        <v>1.069935963853285</v>
+        <v>1.043814050293496</v>
       </c>
       <c r="F4">
-        <v>1.081638961030051</v>
+        <v>1.054157992043794</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0438833497747</v>
+        <v>1.05420035841902</v>
       </c>
       <c r="J4">
-        <v>1.068640915186397</v>
+        <v>1.051281146681949</v>
       </c>
       <c r="K4">
-        <v>1.076242302801203</v>
+        <v>1.056313313672951</v>
       </c>
       <c r="L4">
-        <v>1.072337032408312</v>
+        <v>1.053410943273615</v>
       </c>
       <c r="M4">
-        <v>1.084012736314587</v>
+        <v>1.063643929764752</v>
       </c>
       <c r="N4">
-        <v>1.026516655769923</v>
+        <v>1.020287758464599</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064579477498714</v>
+        <v>1.034236726328808</v>
       </c>
       <c r="D5">
-        <v>1.074168929181758</v>
+        <v>1.048156376422428</v>
       </c>
       <c r="E5">
-        <v>1.070237044031527</v>
+        <v>1.045144183353779</v>
       </c>
       <c r="F5">
-        <v>1.081962706088641</v>
+        <v>1.055584095560554</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043944406660332</v>
+        <v>1.054575017185921</v>
       </c>
       <c r="J5">
-        <v>1.068884323089063</v>
+        <v>1.052370831366403</v>
       </c>
       <c r="K5">
-        <v>1.076510298514093</v>
+        <v>1.057495445225256</v>
       </c>
       <c r="L5">
-        <v>1.072587447895828</v>
+        <v>1.054514933155955</v>
       </c>
       <c r="M5">
-        <v>1.084286374974266</v>
+        <v>1.064845985337908</v>
       </c>
       <c r="N5">
-        <v>1.026599636989721</v>
+        <v>1.020665693585425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064636256199522</v>
+        <v>1.03449723223658</v>
       </c>
       <c r="D6">
-        <v>1.074222407464143</v>
+        <v>1.048391787572682</v>
       </c>
       <c r="E6">
-        <v>1.070287598714039</v>
+        <v>1.045366553510884</v>
       </c>
       <c r="F6">
-        <v>1.082017066849433</v>
+        <v>1.055822508072979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043954636615126</v>
+        <v>1.054637457349743</v>
       </c>
       <c r="J6">
-        <v>1.068925182459999</v>
+        <v>1.052552890813087</v>
       </c>
       <c r="K6">
-        <v>1.076555289603486</v>
+        <v>1.057692985623593</v>
       </c>
       <c r="L6">
-        <v>1.07262948740434</v>
+        <v>1.05469941728594</v>
       </c>
       <c r="M6">
-        <v>1.084332314488448</v>
+        <v>1.065046866544664</v>
       </c>
       <c r="N6">
-        <v>1.026613564020533</v>
+        <v>1.020728825466329</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064245822048929</v>
+        <v>1.032698864165243</v>
       </c>
       <c r="D7">
-        <v>1.073854690075158</v>
+        <v>1.046767053168658</v>
       </c>
       <c r="E7">
-        <v>1.069939986768383</v>
+        <v>1.043831888709891</v>
       </c>
       <c r="F7">
-        <v>1.08164328675797</v>
+        <v>1.054177117650188</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043884167078359</v>
+        <v>1.054205396051334</v>
       </c>
       <c r="J7">
-        <v>1.068644168277964</v>
+        <v>1.051295768031034</v>
       </c>
       <c r="K7">
-        <v>1.076245884214073</v>
+        <v>1.056329173093814</v>
       </c>
       <c r="L7">
-        <v>1.072340378898773</v>
+        <v>1.053425754238605</v>
       </c>
       <c r="M7">
-        <v>1.084016393065164</v>
+        <v>1.063660055716829</v>
       </c>
       <c r="N7">
-        <v>1.026517764963301</v>
+        <v>1.020292830368614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062613531575504</v>
+        <v>1.024998912487681</v>
       </c>
       <c r="D8">
-        <v>1.072317916371206</v>
+        <v>1.039820893132497</v>
       </c>
       <c r="E8">
-        <v>1.068487307084083</v>
+        <v>1.037272497610473</v>
       </c>
       <c r="F8">
-        <v>1.080081306321536</v>
+        <v>1.047144148973901</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043586464391374</v>
+        <v>1.052330184937285</v>
       </c>
       <c r="J8">
-        <v>1.067468136530141</v>
+        <v>1.04590599244188</v>
       </c>
       <c r="K8">
-        <v>1.074951661550978</v>
+        <v>1.050487185107636</v>
       </c>
       <c r="L8">
-        <v>1.071131026006331</v>
+        <v>1.047970192147303</v>
       </c>
       <c r="M8">
-        <v>1.082695072025326</v>
+        <v>1.057721256675138</v>
       </c>
       <c r="N8">
-        <v>1.0261164876155</v>
+        <v>1.018421885612109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05973581654328</v>
+        <v>1.010670460678588</v>
       </c>
       <c r="D9">
-        <v>1.069610688081723</v>
+        <v>1.026939003009298</v>
       </c>
       <c r="E9">
-        <v>1.065928488672691</v>
+        <v>1.025115104924752</v>
       </c>
       <c r="F9">
-        <v>1.077330168990712</v>
+        <v>1.034107331515103</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043049978589529</v>
+        <v>1.048746595053909</v>
       </c>
       <c r="J9">
-        <v>1.06539032325106</v>
+        <v>1.035851963705273</v>
       </c>
       <c r="K9">
-        <v>1.072667385576384</v>
+        <v>1.039609626898362</v>
       </c>
       <c r="L9">
-        <v>1.068996430273102</v>
+        <v>1.037813437430156</v>
       </c>
       <c r="M9">
-        <v>1.080363565855598</v>
+        <v>1.046670258632545</v>
       </c>
       <c r="N9">
-        <v>1.025406152793433</v>
+        <v>1.014926160488861</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.057816266130723</v>
+        <v>1.00053347454472</v>
       </c>
       <c r="D10">
-        <v>1.06780630021494</v>
+        <v>1.017859360095815</v>
       </c>
       <c r="E10">
-        <v>1.064223203877678</v>
+        <v>1.016551734078583</v>
       </c>
       <c r="F10">
-        <v>1.075496852006688</v>
+        <v>1.024922909492833</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042684307309748</v>
+        <v>1.046150776807808</v>
       </c>
       <c r="J10">
-        <v>1.064001348740356</v>
+        <v>1.028725942562817</v>
       </c>
       <c r="K10">
-        <v>1.071141979333286</v>
+        <v>1.031913475363896</v>
       </c>
       <c r="L10">
-        <v>1.067570904936525</v>
+        <v>1.030628437141861</v>
       </c>
       <c r="M10">
-        <v>1.078807024632128</v>
+        <v>1.038856295946768</v>
       </c>
       <c r="N10">
-        <v>1.024930404931282</v>
+        <v>1.012445352963095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.056984796325936</v>
+        <v>0.9959869043317692</v>
       </c>
       <c r="D11">
-        <v>1.067025063419381</v>
+        <v>1.013796104929678</v>
       </c>
       <c r="E11">
-        <v>1.06348492108546</v>
+        <v>1.012721028303732</v>
       </c>
       <c r="F11">
-        <v>1.074703170441971</v>
+        <v>1.020813890614419</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042524062778671</v>
+        <v>1.044972956637527</v>
       </c>
       <c r="J11">
-        <v>1.063398997721227</v>
+        <v>1.025527591035843</v>
       </c>
       <c r="K11">
-        <v>1.070480838082569</v>
+        <v>1.028462453820625</v>
       </c>
       <c r="L11">
-        <v>1.066953037223678</v>
+        <v>1.027406966949839</v>
       </c>
       <c r="M11">
-        <v>1.078132485413961</v>
+        <v>1.035353679768007</v>
       </c>
       <c r="N11">
-        <v>1.024723876831946</v>
+        <v>1.011331326042855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05667590501555</v>
+        <v>0.9942727372821941</v>
       </c>
       <c r="D12">
-        <v>1.066734886812602</v>
+        <v>1.012265619388594</v>
       </c>
       <c r="E12">
-        <v>1.063210706001156</v>
+        <v>1.011278379470935</v>
       </c>
       <c r="F12">
-        <v>1.074408383603045</v>
+        <v>1.019266344000612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04246425399379</v>
+        <v>1.044526925747618</v>
       </c>
       <c r="J12">
-        <v>1.063175118607264</v>
+        <v>1.024321478674354</v>
       </c>
       <c r="K12">
-        <v>1.070235164496992</v>
+        <v>1.027161542741869</v>
       </c>
       <c r="L12">
-        <v>1.066723441179799</v>
+        <v>1.026192647082065</v>
       </c>
       <c r="M12">
-        <v>1.077881847830332</v>
+        <v>1.034033511174052</v>
       </c>
       <c r="N12">
-        <v>1.024647083644058</v>
+        <v>1.010911150728101</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.05674216539126</v>
+        <v>0.9946416099270241</v>
       </c>
       <c r="D13">
-        <v>1.066797130277033</v>
+        <v>1.012594897951545</v>
       </c>
       <c r="E13">
-        <v>1.063269525367389</v>
+        <v>1.011588748998796</v>
       </c>
       <c r="F13">
-        <v>1.074471615420417</v>
+        <v>1.019599285096623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042477096167456</v>
+        <v>1.044622994875537</v>
       </c>
       <c r="J13">
-        <v>1.06322314775744</v>
+        <v>1.024581032954994</v>
       </c>
       <c r="K13">
-        <v>1.070287866697953</v>
+        <v>1.027441475740609</v>
       </c>
       <c r="L13">
-        <v>1.066772694518077</v>
+        <v>1.026453944430879</v>
       </c>
       <c r="M13">
-        <v>1.07793561425489</v>
+        <v>1.034317579274417</v>
       </c>
       <c r="N13">
-        <v>1.024663559645713</v>
+        <v>1.011001575021161</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.056959264235323</v>
+        <v>0.9958457389991466</v>
       </c>
       <c r="D14">
-        <v>1.067001077146424</v>
+        <v>1.01367003594218</v>
       </c>
       <c r="E14">
-        <v>1.06346225406317</v>
+        <v>1.012602189546429</v>
       </c>
       <c r="F14">
-        <v>1.074678802834508</v>
+        <v>1.020686412644705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04251912481949</v>
+        <v>1.044936264478395</v>
       </c>
       <c r="J14">
-        <v>1.063380494650783</v>
+        <v>1.025428269820883</v>
       </c>
       <c r="K14">
-        <v>1.070460532600834</v>
+        <v>1.028355316263555</v>
       </c>
       <c r="L14">
-        <v>1.066934060637698</v>
+        <v>1.027306959450909</v>
       </c>
       <c r="M14">
-        <v>1.07811176934931</v>
+        <v>1.035244952308356</v>
       </c>
       <c r="N14">
-        <v>1.024717530706342</v>
+        <v>1.011296726699296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.057093019772632</v>
+        <v>0.9965842257760597</v>
       </c>
       <c r="D15">
-        <v>1.067126736753197</v>
+        <v>1.014329608312437</v>
       </c>
       <c r="E15">
-        <v>1.063581002650074</v>
+        <v>1.013223944550305</v>
       </c>
       <c r="F15">
-        <v>1.074806460679819</v>
+        <v>1.021353363813126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042544982038988</v>
+        <v>1.045128134892162</v>
       </c>
       <c r="J15">
-        <v>1.0634774227837</v>
+        <v>1.025947844977447</v>
       </c>
       <c r="K15">
-        <v>1.070566904955432</v>
+        <v>1.0289158004572</v>
       </c>
       <c r="L15">
-        <v>1.067033471333968</v>
+        <v>1.027830145566222</v>
       </c>
       <c r="M15">
-        <v>1.078220293180997</v>
+        <v>1.035813761838408</v>
       </c>
       <c r="N15">
-        <v>1.024750773517046</v>
+        <v>1.011477722088492</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.057871441676586</v>
+        <v>1.000831757878032</v>
       </c>
       <c r="D16">
-        <v>1.067858149760014</v>
+        <v>1.018126131485168</v>
       </c>
       <c r="E16">
-        <v>1.06427220360522</v>
+        <v>1.016803270308455</v>
       </c>
       <c r="F16">
-        <v>1.075549529194638</v>
+        <v>1.025192709496677</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042694902009941</v>
+        <v>1.046227773511647</v>
       </c>
       <c r="J16">
-        <v>1.064041305367007</v>
+        <v>1.028935734447325</v>
       </c>
       <c r="K16">
-        <v>1.071185843685345</v>
+        <v>1.032139907726921</v>
       </c>
       <c r="L16">
-        <v>1.067611897894264</v>
+        <v>1.030839815659369</v>
       </c>
       <c r="M16">
-        <v>1.078851779928941</v>
+        <v>1.039086139749628</v>
       </c>
       <c r="N16">
-        <v>1.024944100401021</v>
+        <v>1.012518415532125</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.058359645237542</v>
+        <v>1.003452853483782</v>
       </c>
       <c r="D17">
-        <v>1.068316964674331</v>
+        <v>1.020471363819496</v>
       </c>
       <c r="E17">
-        <v>1.064705805890391</v>
+        <v>1.019014741186347</v>
       </c>
       <c r="F17">
-        <v>1.076015677203876</v>
+        <v>1.027564695559147</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042788432147282</v>
+        <v>1.046902834880528</v>
       </c>
       <c r="J17">
-        <v>1.064394767729502</v>
+        <v>1.030778987235246</v>
       </c>
       <c r="K17">
-        <v>1.07157391772925</v>
+        <v>1.034129730443862</v>
       </c>
       <c r="L17">
-        <v>1.06797456637545</v>
+        <v>1.032697389546723</v>
       </c>
       <c r="M17">
-        <v>1.079247747439629</v>
+        <v>1.041106081770107</v>
       </c>
       <c r="N17">
-        <v>1.025065228097258</v>
+        <v>1.013160287479627</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.058644378134124</v>
+        <v>1.004966654813608</v>
       </c>
       <c r="D18">
-        <v>1.068584591013292</v>
+        <v>1.021826693065597</v>
       </c>
       <c r="E18">
-        <v>1.064958730139384</v>
+        <v>1.020292910376178</v>
       </c>
       <c r="F18">
-        <v>1.076287588696732</v>
+        <v>1.028935592036396</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042842802776956</v>
+        <v>1.0472914271501</v>
       </c>
       <c r="J18">
-        <v>1.064600848079536</v>
+        <v>1.031843332164491</v>
       </c>
       <c r="K18">
-        <v>1.071800214049502</v>
+        <v>1.035279012912066</v>
       </c>
       <c r="L18">
-        <v>1.068186046409287</v>
+        <v>1.033770319995958</v>
       </c>
       <c r="M18">
-        <v>1.079478655957791</v>
+        <v>1.042272876588321</v>
       </c>
       <c r="N18">
-        <v>1.025135829096958</v>
+        <v>1.013530866857036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.058741460024637</v>
+        <v>1.005480321508097</v>
       </c>
       <c r="D19">
-        <v>1.068675845979952</v>
+        <v>1.022286728349335</v>
       </c>
       <c r="E19">
-        <v>1.06504497274668</v>
+        <v>1.020726779040585</v>
       </c>
       <c r="F19">
-        <v>1.076380306126417</v>
+        <v>1.029400929037183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042861310573224</v>
+        <v>1.047423064929369</v>
       </c>
       <c r="J19">
-        <v>1.064671101227479</v>
+        <v>1.032204449156514</v>
       </c>
       <c r="K19">
-        <v>1.071877364997988</v>
+        <v>1.035668999556731</v>
       </c>
       <c r="L19">
-        <v>1.06825814578082</v>
+        <v>1.034134403362717</v>
       </c>
       <c r="M19">
-        <v>1.079557380914826</v>
+        <v>1.042668825205027</v>
       </c>
       <c r="N19">
-        <v>1.025159893619832</v>
+        <v>1.01365658933557</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.058307268529705</v>
+        <v>1.003173202453712</v>
       </c>
       <c r="D20">
-        <v>1.068267737428477</v>
+        <v>1.020221056252078</v>
       </c>
       <c r="E20">
-        <v>1.064659283304555</v>
+        <v>1.018778695199247</v>
       </c>
       <c r="F20">
-        <v>1.075965662370679</v>
+        <v>1.027311521499818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04277841627541</v>
+        <v>1.046830943991971</v>
       </c>
       <c r="J20">
-        <v>1.064356853704828</v>
+        <v>1.03058234811728</v>
       </c>
       <c r="K20">
-        <v>1.071532287348427</v>
+        <v>1.033917423601897</v>
       </c>
       <c r="L20">
-        <v>1.067935661527002</v>
+        <v>1.032499189774876</v>
       </c>
       <c r="M20">
-        <v>1.079205269329354</v>
+        <v>1.040890549216039</v>
       </c>
       <c r="N20">
-        <v>1.025052237492957</v>
+        <v>1.013091817885735</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.056895335338369</v>
+        <v>0.9954918682273153</v>
       </c>
       <c r="D21">
-        <v>1.066941019627838</v>
+        <v>1.013354032260965</v>
       </c>
       <c r="E21">
-        <v>1.063405499836056</v>
+        <v>1.012304313090817</v>
       </c>
       <c r="F21">
-        <v>1.074617790716239</v>
+        <v>1.020366880085837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042506756350231</v>
+        <v>1.044844253863228</v>
       </c>
       <c r="J21">
-        <v>1.063334163765275</v>
+        <v>1.025179289302571</v>
       </c>
       <c r="K21">
-        <v>1.07040968946687</v>
+        <v>1.028086749370127</v>
       </c>
       <c r="L21">
-        <v>1.066886544901524</v>
+        <v>1.027056266785263</v>
       </c>
       <c r="M21">
-        <v>1.078059898387234</v>
+        <v>1.034972403040137</v>
       </c>
       <c r="N21">
-        <v>1.024701639770864</v>
+        <v>1.011209991246733</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.056007327151375</v>
+        <v>0.990514537370331</v>
       </c>
       <c r="D22">
-        <v>1.066106913718068</v>
+        <v>1.008912930304252</v>
       </c>
       <c r="E22">
-        <v>1.062617288314339</v>
+        <v>1.008118573555545</v>
       </c>
       <c r="F22">
-        <v>1.073770455771328</v>
+        <v>1.01587661442894</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042334293253392</v>
+        <v>1.04354550029297</v>
       </c>
       <c r="J22">
-        <v>1.062690352313032</v>
+        <v>1.021676777247245</v>
       </c>
       <c r="K22">
-        <v>1.06970330973818</v>
+        <v>1.024309864240325</v>
       </c>
       <c r="L22">
-        <v>1.066226387948093</v>
+        <v>1.02353089750725</v>
       </c>
       <c r="M22">
-        <v>1.077339273267337</v>
+        <v>1.03113998000556</v>
       </c>
       <c r="N22">
-        <v>1.024480745154267</v>
+        <v>1.009989698779199</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05647810351958</v>
+        <v>0.9931677528511048</v>
       </c>
       <c r="D23">
-        <v>1.0665490844895</v>
+        <v>1.011279463624275</v>
       </c>
       <c r="E23">
-        <v>1.063035125955556</v>
+        <v>1.01034889137246</v>
       </c>
       <c r="F23">
-        <v>1.074219632742476</v>
+        <v>1.018269245791028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04242587666311</v>
+        <v>1.044238861835397</v>
       </c>
       <c r="J23">
-        <v>1.063031725826193</v>
+        <v>1.023543934144158</v>
       </c>
       <c r="K23">
-        <v>1.070077828412759</v>
+        <v>1.026323020892726</v>
       </c>
       <c r="L23">
-        <v>1.066576400901065</v>
+        <v>1.025409956279893</v>
       </c>
       <c r="M23">
-        <v>1.077721336769537</v>
+        <v>1.03318263153803</v>
       </c>
       <c r="N23">
-        <v>1.024597889302158</v>
+        <v>1.010640258274621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.058330935395921</v>
+        <v>1.003299611063439</v>
       </c>
       <c r="D24">
-        <v>1.068289981079259</v>
+        <v>1.020334198315966</v>
       </c>
       <c r="E24">
-        <v>1.064680304823515</v>
+        <v>1.018885390416747</v>
       </c>
       <c r="F24">
-        <v>1.075988261873928</v>
+        <v>1.027425958924507</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042782942585098</v>
+        <v>1.046863444301336</v>
       </c>
       <c r="J24">
-        <v>1.064373985693376</v>
+        <v>1.030671234138793</v>
       </c>
       <c r="K24">
-        <v>1.071551098513199</v>
+        <v>1.034013390900727</v>
       </c>
       <c r="L24">
-        <v>1.067953241133757</v>
+        <v>1.032588780272185</v>
       </c>
       <c r="M24">
-        <v>1.07922446352164</v>
+        <v>1.040987974247154</v>
       </c>
       <c r="N24">
-        <v>1.025058107544672</v>
+        <v>1.013122768104326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.060479954913092</v>
+        <v>1.0144719786193</v>
       </c>
       <c r="D25">
-        <v>1.070310489475943</v>
+        <v>1.030351227996557</v>
       </c>
       <c r="E25">
-        <v>1.066589894645995</v>
+        <v>1.028334510942559</v>
       </c>
       <c r="F25">
-        <v>1.07804126149346</v>
+        <v>1.037559859260625</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043190084376544</v>
+        <v>1.049707987884454</v>
       </c>
       <c r="J25">
-        <v>1.065928146286071</v>
+        <v>1.03852192926389</v>
       </c>
       <c r="K25">
-        <v>1.073258370636314</v>
+        <v>1.04249596684638</v>
       </c>
       <c r="L25">
-        <v>1.069548703366437</v>
+        <v>1.040508335554042</v>
       </c>
       <c r="M25">
-        <v>1.080966699173843</v>
+        <v>1.049601801470245</v>
       </c>
       <c r="N25">
-        <v>1.025590176298226</v>
+        <v>1.015855081225119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022967534184863</v>
+        <v>1.011034375841801</v>
       </c>
       <c r="D2">
-        <v>1.037991148033121</v>
+        <v>1.026749176251958</v>
       </c>
       <c r="E2">
-        <v>1.035545089984325</v>
+        <v>1.015876282391699</v>
       </c>
       <c r="F2">
-        <v>1.045291929266413</v>
+        <v>1.032043836170716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051829122935891</v>
+        <v>1.051830496145964</v>
       </c>
       <c r="J2">
-        <v>1.044482338906369</v>
+        <v>1.032889986128875</v>
       </c>
       <c r="K2">
-        <v>1.048945411649993</v>
+        <v>1.037848018340917</v>
       </c>
       <c r="L2">
-        <v>1.046530477508002</v>
+        <v>1.027118779111813</v>
       </c>
       <c r="M2">
-        <v>1.056154376522058</v>
+        <v>1.043074095052735</v>
       </c>
       <c r="N2">
-        <v>1.01792729374148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014549564519102</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04266264428628</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037832095402163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028919552562918</v>
+        <v>1.015536616392946</v>
       </c>
       <c r="D3">
-        <v>1.043355632840556</v>
+        <v>1.030110046669376</v>
       </c>
       <c r="E3">
-        <v>1.040610076664809</v>
+        <v>1.019488221139642</v>
       </c>
       <c r="F3">
-        <v>1.050722764278211</v>
+        <v>1.035336239925257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053289940647278</v>
+        <v>1.052937094063242</v>
       </c>
       <c r="J3">
-        <v>1.048651728606766</v>
+        <v>1.035612515491873</v>
       </c>
       <c r="K3">
-        <v>1.0534622694583</v>
+        <v>1.040371630811293</v>
       </c>
       <c r="L3">
-        <v>1.050748430387152</v>
+        <v>1.029877673992174</v>
       </c>
       <c r="M3">
-        <v>1.060745304430836</v>
+        <v>1.045536101768942</v>
       </c>
       <c r="N3">
-        <v>1.019375327569087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015485845284118</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044611149099292</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039613848818055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032677953501963</v>
+        <v>1.018388419474522</v>
       </c>
       <c r="D4">
-        <v>1.046748166872683</v>
+        <v>1.032245958115379</v>
       </c>
       <c r="E4">
-        <v>1.043814050293496</v>
+        <v>1.02178171959751</v>
       </c>
       <c r="F4">
-        <v>1.054157992043794</v>
+        <v>1.037431622683207</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05420035841902</v>
+        <v>1.053620629797453</v>
       </c>
       <c r="J4">
-        <v>1.051281146681949</v>
+        <v>1.037333163657935</v>
       </c>
       <c r="K4">
-        <v>1.056313313672951</v>
+        <v>1.041970177149</v>
       </c>
       <c r="L4">
-        <v>1.053410943273615</v>
+        <v>1.031624178314103</v>
       </c>
       <c r="M4">
-        <v>1.063643929764752</v>
+        <v>1.047098333358691</v>
       </c>
       <c r="N4">
-        <v>1.020287758464599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016077539072237</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045847542615459</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040745055422666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034236726328808</v>
+        <v>1.019578623910453</v>
       </c>
       <c r="D5">
-        <v>1.048156376422428</v>
+        <v>1.033141685886815</v>
       </c>
       <c r="E5">
-        <v>1.045144183353779</v>
+        <v>1.022740946265009</v>
       </c>
       <c r="F5">
-        <v>1.055584095560554</v>
+        <v>1.038309410586409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054575017185921</v>
+        <v>1.053902576712186</v>
       </c>
       <c r="J5">
-        <v>1.052370831366403</v>
+        <v>1.038052373769218</v>
       </c>
       <c r="K5">
-        <v>1.057495445225256</v>
+        <v>1.042640922832881</v>
       </c>
       <c r="L5">
-        <v>1.054514933155955</v>
+        <v>1.032354522495162</v>
       </c>
       <c r="M5">
-        <v>1.064845985337908</v>
+        <v>1.047752880725065</v>
       </c>
       <c r="N5">
-        <v>1.020665693585425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016325706761287</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046365568981297</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041226488111285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03449723223658</v>
+        <v>1.019784369933439</v>
       </c>
       <c r="D6">
-        <v>1.048391787572682</v>
+        <v>1.033299822417674</v>
       </c>
       <c r="E6">
-        <v>1.045366553510884</v>
+        <v>1.022907711910968</v>
       </c>
       <c r="F6">
-        <v>1.055822508072979</v>
+        <v>1.038462417005515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054637457349743</v>
+        <v>1.053952194954066</v>
       </c>
       <c r="J6">
-        <v>1.052552890813087</v>
+        <v>1.038179148454204</v>
       </c>
       <c r="K6">
-        <v>1.057692985623593</v>
+        <v>1.042761252161353</v>
       </c>
       <c r="L6">
-        <v>1.05469941728594</v>
+        <v>1.032482852977041</v>
       </c>
       <c r="M6">
-        <v>1.065046866544664</v>
+        <v>1.047868393665563</v>
       </c>
       <c r="N6">
-        <v>1.020728825466329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016370493977994</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046456988987045</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041320300136406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032698864165243</v>
+        <v>1.018422582410177</v>
       </c>
       <c r="D7">
-        <v>1.046767053168658</v>
+        <v>1.032280244376335</v>
       </c>
       <c r="E7">
-        <v>1.043831888709891</v>
+        <v>1.021811619743146</v>
       </c>
       <c r="F7">
-        <v>1.054177117650188</v>
+        <v>1.037459829187026</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054205396051334</v>
+        <v>1.05363179038485</v>
       </c>
       <c r="J7">
-        <v>1.051295768031034</v>
+        <v>1.037360571867745</v>
       </c>
       <c r="K7">
-        <v>1.056329173093814</v>
+        <v>1.042001204759431</v>
       </c>
       <c r="L7">
-        <v>1.053425754238605</v>
+        <v>1.031650820793363</v>
       </c>
       <c r="M7">
-        <v>1.063660055716829</v>
+        <v>1.047123372028997</v>
       </c>
       <c r="N7">
-        <v>1.020292830368614</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016089843808698</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04586735889835</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04078707895962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024998912487681</v>
+        <v>1.012592226031133</v>
       </c>
       <c r="D8">
-        <v>1.039820893132497</v>
+        <v>1.027921373150023</v>
       </c>
       <c r="E8">
-        <v>1.037272497610473</v>
+        <v>1.017128029992954</v>
       </c>
       <c r="F8">
-        <v>1.047144148973901</v>
+        <v>1.033184788212608</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052330184937285</v>
+        <v>1.05222067054965</v>
       </c>
       <c r="J8">
-        <v>1.04590599244188</v>
+        <v>1.033841355190957</v>
       </c>
       <c r="K8">
-        <v>1.050487185107636</v>
+        <v>1.038735961151819</v>
       </c>
       <c r="L8">
-        <v>1.047970192147303</v>
+        <v>1.028080883718049</v>
       </c>
       <c r="M8">
-        <v>1.057721256675138</v>
+        <v>1.043933256626002</v>
       </c>
       <c r="N8">
-        <v>1.018421885612109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014880508102336</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043342610716313</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03848286399855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010670460678588</v>
+        <v>1.001794073973526</v>
       </c>
       <c r="D9">
-        <v>1.026939003009298</v>
+        <v>1.019892967323031</v>
       </c>
       <c r="E9">
-        <v>1.025115104924752</v>
+        <v>1.008496634027978</v>
       </c>
       <c r="F9">
-        <v>1.034107331515103</v>
+        <v>1.025343556794057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048746595053909</v>
+        <v>1.049466524782388</v>
       </c>
       <c r="J9">
-        <v>1.035851963705273</v>
+        <v>1.027283637543337</v>
       </c>
       <c r="K9">
-        <v>1.039609626898362</v>
+        <v>1.032671334164633</v>
       </c>
       <c r="L9">
-        <v>1.037813437430156</v>
+        <v>1.021453347152185</v>
       </c>
       <c r="M9">
-        <v>1.046670258632545</v>
+        <v>1.038038411779897</v>
       </c>
       <c r="N9">
-        <v>1.014926160488861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012621979844786</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038677239534596</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034191558454278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00053347454472</v>
+        <v>0.9943263295615661</v>
       </c>
       <c r="D10">
-        <v>1.017859360095815</v>
+        <v>1.014419110169936</v>
       </c>
       <c r="E10">
-        <v>1.016551734078583</v>
+        <v>1.0025755950857</v>
       </c>
       <c r="F10">
-        <v>1.024922909492833</v>
+        <v>1.020064033663172</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046150776807808</v>
+        <v>1.047488240457024</v>
       </c>
       <c r="J10">
-        <v>1.028725942562817</v>
+        <v>1.022766875833589</v>
       </c>
       <c r="K10">
-        <v>1.031913475363896</v>
+        <v>1.028532813686323</v>
       </c>
       <c r="L10">
-        <v>1.030628437141861</v>
+        <v>1.016898501562815</v>
       </c>
       <c r="M10">
-        <v>1.038856295946768</v>
+        <v>1.034080235104524</v>
       </c>
       <c r="N10">
-        <v>1.012445352963095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011081395731565</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035596212160155</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031282216566574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9959869043317692</v>
+        <v>0.9917667952801934</v>
       </c>
       <c r="D11">
-        <v>1.013796104929678</v>
+        <v>1.012831263347014</v>
       </c>
       <c r="E11">
-        <v>1.012721028303732</v>
+        <v>1.000662025488697</v>
       </c>
       <c r="F11">
-        <v>1.020813890614419</v>
+        <v>1.018946982426086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044972956637527</v>
+        <v>1.04689251543512</v>
       </c>
       <c r="J11">
-        <v>1.025527591035843</v>
+        <v>1.021486142121815</v>
       </c>
       <c r="K11">
-        <v>1.028462453820625</v>
+        <v>1.027515190829386</v>
       </c>
       <c r="L11">
-        <v>1.027406966949839</v>
+        <v>1.015571467768662</v>
       </c>
       <c r="M11">
-        <v>1.035353679768007</v>
+        <v>1.033520218535449</v>
       </c>
       <c r="N11">
-        <v>1.011331326042855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010763341091966</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035590687805895</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030595736940919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9942727372821941</v>
+        <v>0.9910696892273099</v>
       </c>
       <c r="D12">
-        <v>1.012265619388594</v>
+        <v>1.012520705347954</v>
       </c>
       <c r="E12">
-        <v>1.011278379470935</v>
+        <v>1.000192015386866</v>
       </c>
       <c r="F12">
-        <v>1.019266344000612</v>
+        <v>1.018954560595297</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044526925747618</v>
+        <v>1.046770796277328</v>
       </c>
       <c r="J12">
-        <v>1.024321478674354</v>
+        <v>1.021256864272283</v>
       </c>
       <c r="K12">
-        <v>1.027161542741869</v>
+        <v>1.027411896441788</v>
       </c>
       <c r="L12">
-        <v>1.026192647082065</v>
+        <v>1.015315537609337</v>
       </c>
       <c r="M12">
-        <v>1.034033511174052</v>
+        <v>1.033727413042352</v>
       </c>
       <c r="N12">
-        <v>1.010911150728101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010775271899389</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036081881264206</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030522703660118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9946416099270241</v>
+        <v>0.9917889236456198</v>
       </c>
       <c r="D13">
-        <v>1.012594897951545</v>
+        <v>1.013204944970758</v>
       </c>
       <c r="E13">
-        <v>1.011588748998796</v>
+        <v>1.000825792431655</v>
       </c>
       <c r="F13">
-        <v>1.019599285096623</v>
+        <v>1.019863769137874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044622994875537</v>
+        <v>1.047023657533393</v>
       </c>
       <c r="J13">
-        <v>1.024581032954994</v>
+        <v>1.021850993939936</v>
       </c>
       <c r="K13">
-        <v>1.027441475740609</v>
+        <v>1.028040258000577</v>
       </c>
       <c r="L13">
-        <v>1.026453944430879</v>
+        <v>1.015893207846165</v>
       </c>
       <c r="M13">
-        <v>1.034317579274417</v>
+        <v>1.03457726426381</v>
       </c>
       <c r="N13">
-        <v>1.011001575021161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011055747728396</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03703111191019</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030964474003933</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9958457389991466</v>
+        <v>0.9929317777750003</v>
       </c>
       <c r="D14">
-        <v>1.01367003594218</v>
+        <v>1.014133030188868</v>
       </c>
       <c r="E14">
-        <v>1.012602189546429</v>
+        <v>1.00176729401744</v>
       </c>
       <c r="F14">
-        <v>1.020686412644705</v>
+        <v>1.020905989262954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044936264478395</v>
+        <v>1.047369201584525</v>
       </c>
       <c r="J14">
-        <v>1.025428269820883</v>
+        <v>1.022637667293614</v>
       </c>
       <c r="K14">
-        <v>1.028355316263555</v>
+        <v>1.028809876863146</v>
       </c>
       <c r="L14">
-        <v>1.027306959450909</v>
+        <v>1.016672883763609</v>
       </c>
       <c r="M14">
-        <v>1.035244952308356</v>
+        <v>1.035460599104027</v>
       </c>
       <c r="N14">
-        <v>1.011296726699296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011372624542734</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037902965013288</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031510057626342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9965842257760597</v>
+        <v>0.993528295632342</v>
       </c>
       <c r="D15">
-        <v>1.014329608312437</v>
+        <v>1.014590142567039</v>
       </c>
       <c r="E15">
-        <v>1.013223944550305</v>
+        <v>1.002246777745424</v>
       </c>
       <c r="F15">
-        <v>1.021353363813126</v>
+        <v>1.02137705525098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045128134892162</v>
+        <v>1.047539159360076</v>
       </c>
       <c r="J15">
-        <v>1.025947844977447</v>
+        <v>1.023020070483367</v>
       </c>
       <c r="K15">
-        <v>1.0289158004572</v>
+        <v>1.029171628154223</v>
       </c>
       <c r="L15">
-        <v>1.027830145566222</v>
+        <v>1.017054754417714</v>
       </c>
       <c r="M15">
-        <v>1.035813761838408</v>
+        <v>1.03583703276591</v>
       </c>
       <c r="N15">
-        <v>1.011477722088492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011513683037997</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038238081361721</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031771729529871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000831757878032</v>
+        <v>0.9965636336759134</v>
       </c>
       <c r="D16">
-        <v>1.018126131485168</v>
+        <v>1.01678915717197</v>
       </c>
       <c r="E16">
-        <v>1.016803270308455</v>
+        <v>1.004634458500606</v>
       </c>
       <c r="F16">
-        <v>1.025192709496677</v>
+        <v>1.023476672631873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046227773511647</v>
+        <v>1.048352360775727</v>
       </c>
       <c r="J16">
-        <v>1.028935734447325</v>
+        <v>1.024837033564963</v>
       </c>
       <c r="K16">
-        <v>1.032139907726921</v>
+        <v>1.030825945851493</v>
       </c>
       <c r="L16">
-        <v>1.030839815659369</v>
+        <v>1.018884104174964</v>
       </c>
       <c r="M16">
-        <v>1.039086139749628</v>
+        <v>1.037399130323152</v>
       </c>
       <c r="N16">
-        <v>1.012518415532125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012118483982367</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039434002636587</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032944574890209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003452853483782</v>
+        <v>0.9982950811517484</v>
       </c>
       <c r="D17">
-        <v>1.020471363819496</v>
+        <v>1.017992381911854</v>
       </c>
       <c r="E17">
-        <v>1.019014741186347</v>
+        <v>1.005976366526554</v>
       </c>
       <c r="F17">
-        <v>1.027564695559147</v>
+        <v>1.024537993235872</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046902834880528</v>
+        <v>1.04879158139093</v>
       </c>
       <c r="J17">
-        <v>1.030778987235246</v>
+        <v>1.025818934904245</v>
       </c>
       <c r="K17">
-        <v>1.034129730443862</v>
+        <v>1.031692126376371</v>
       </c>
       <c r="L17">
-        <v>1.032697389546723</v>
+        <v>1.019880413586676</v>
       </c>
       <c r="M17">
-        <v>1.041106081770107</v>
+        <v>1.038129039747314</v>
       </c>
       <c r="N17">
-        <v>1.013160287479627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012416841573508</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039881793191407</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033559594329836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004966654813608</v>
+        <v>0.9990425955682463</v>
       </c>
       <c r="D18">
-        <v>1.021826693065597</v>
+        <v>1.018409164416462</v>
       </c>
       <c r="E18">
-        <v>1.020292910376178</v>
+        <v>1.006515848568169</v>
       </c>
       <c r="F18">
-        <v>1.028935592036396</v>
+        <v>1.024740619934261</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0472914271501</v>
+        <v>1.048942099658512</v>
       </c>
       <c r="J18">
-        <v>1.031843332164491</v>
+        <v>1.026141821346982</v>
       </c>
       <c r="K18">
-        <v>1.035279012912066</v>
+        <v>1.031917521564234</v>
       </c>
       <c r="L18">
-        <v>1.033770319995958</v>
+        <v>1.020223049906146</v>
       </c>
       <c r="M18">
-        <v>1.042272876588321</v>
+        <v>1.038145539130017</v>
       </c>
       <c r="N18">
-        <v>1.013530866857036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012462677639355</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039656912911113</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033707278935067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005480321508097</v>
+        <v>0.9989178474502783</v>
       </c>
       <c r="D19">
-        <v>1.022286728349335</v>
+        <v>1.018135843031958</v>
       </c>
       <c r="E19">
-        <v>1.020726779040585</v>
+        <v>1.006345751734225</v>
       </c>
       <c r="F19">
-        <v>1.029400929037183</v>
+        <v>1.024174225563052</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047423064929369</v>
+        <v>1.048841501107535</v>
       </c>
       <c r="J19">
-        <v>1.032204449156514</v>
+        <v>1.025886932907504</v>
       </c>
       <c r="K19">
-        <v>1.035668999556731</v>
+        <v>1.031585797329277</v>
       </c>
       <c r="L19">
-        <v>1.034134403362717</v>
+        <v>1.019991880306395</v>
       </c>
       <c r="M19">
-        <v>1.042668825205027</v>
+        <v>1.037525952709273</v>
       </c>
       <c r="N19">
-        <v>1.01365658933557</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01229296122753</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038841069503989</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033479156946691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003173202453712</v>
+        <v>0.9963196294963164</v>
       </c>
       <c r="D20">
-        <v>1.020221056252078</v>
+        <v>1.015901098258543</v>
       </c>
       <c r="E20">
-        <v>1.018778695199247</v>
+        <v>1.00416139855354</v>
       </c>
       <c r="F20">
-        <v>1.027311521499818</v>
+        <v>1.021481814325401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046830943991971</v>
+        <v>1.048029850597554</v>
       </c>
       <c r="J20">
-        <v>1.03058234811728</v>
+        <v>1.023993164174817</v>
       </c>
       <c r="K20">
-        <v>1.033917423601897</v>
+        <v>1.029669992157004</v>
       </c>
       <c r="L20">
-        <v>1.032499189774876</v>
+        <v>1.018131467343273</v>
       </c>
       <c r="M20">
-        <v>1.040890549216039</v>
+        <v>1.035157164110799</v>
       </c>
       <c r="N20">
-        <v>1.013091817885735</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011508933069051</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036437905336164</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032128549156373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9954918682273153</v>
+        <v>0.9905382474146758</v>
       </c>
       <c r="D21">
-        <v>1.013354032260965</v>
+        <v>1.01162156939743</v>
       </c>
       <c r="E21">
-        <v>1.012304313090817</v>
+        <v>0.9995693852286147</v>
       </c>
       <c r="F21">
-        <v>1.020366880085837</v>
+        <v>1.017281515014932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044844253863228</v>
+        <v>1.046448757342534</v>
       </c>
       <c r="J21">
-        <v>1.025179289302571</v>
+        <v>1.020436957244105</v>
       </c>
       <c r="K21">
-        <v>1.028086749370127</v>
+        <v>1.026386062597241</v>
       </c>
       <c r="L21">
-        <v>1.027056266785263</v>
+        <v>1.014558920333953</v>
       </c>
       <c r="M21">
-        <v>1.034972403040137</v>
+        <v>1.031942717183904</v>
       </c>
       <c r="N21">
-        <v>1.011209991246733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010273199040828</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033852877377266</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029809930540849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.990514537370331</v>
+        <v>0.9868389823887966</v>
       </c>
       <c r="D22">
-        <v>1.008912930304252</v>
+        <v>1.008901186109893</v>
       </c>
       <c r="E22">
-        <v>1.008118573555545</v>
+        <v>0.9966427763992763</v>
       </c>
       <c r="F22">
-        <v>1.01587661442894</v>
+        <v>1.014646962228181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04354550029297</v>
+        <v>1.045423383148567</v>
       </c>
       <c r="J22">
-        <v>1.021676777247245</v>
+        <v>1.018167894885197</v>
       </c>
       <c r="K22">
-        <v>1.024309864240325</v>
+        <v>1.02429834734888</v>
       </c>
       <c r="L22">
-        <v>1.02353089750725</v>
+        <v>1.01228103521636</v>
       </c>
       <c r="M22">
-        <v>1.03113998000556</v>
+        <v>1.029933739029052</v>
       </c>
       <c r="N22">
-        <v>1.009989698779199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009487968677979</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03226288922331</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028320215146348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9931677528511048</v>
+        <v>0.988789790383872</v>
       </c>
       <c r="D23">
-        <v>1.011279463624275</v>
+        <v>1.010326724395985</v>
       </c>
       <c r="E23">
-        <v>1.01034889137246</v>
+        <v>0.9981824537280501</v>
       </c>
       <c r="F23">
-        <v>1.018269245791028</v>
+        <v>1.016032009159685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044238861835397</v>
+        <v>1.04596339487399</v>
       </c>
       <c r="J23">
-        <v>1.023543934144158</v>
+        <v>1.019358194410545</v>
       </c>
       <c r="K23">
-        <v>1.026323020892726</v>
+        <v>1.025388206863182</v>
       </c>
       <c r="L23">
-        <v>1.025409956279893</v>
+        <v>1.01347635419605</v>
       </c>
       <c r="M23">
-        <v>1.03318263153803</v>
+        <v>1.030986805050504</v>
       </c>
       <c r="N23">
-        <v>1.010640258274621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009896644804425</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033096329546357</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029081094068782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003299611063439</v>
+        <v>0.9963125763214202</v>
       </c>
       <c r="D24">
-        <v>1.020334198315966</v>
+        <v>1.015856910145085</v>
       </c>
       <c r="E24">
-        <v>1.018885390416747</v>
+        <v>1.0041416286604</v>
       </c>
       <c r="F24">
-        <v>1.027425958924507</v>
+        <v>1.021405217370601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046863444301336</v>
+        <v>1.048014735665256</v>
       </c>
       <c r="J24">
-        <v>1.030671234138793</v>
+        <v>1.023953313220098</v>
       </c>
       <c r="K24">
-        <v>1.034013390900727</v>
+        <v>1.029611167724374</v>
       </c>
       <c r="L24">
-        <v>1.032588780272185</v>
+        <v>1.018096400946879</v>
       </c>
       <c r="M24">
-        <v>1.040987974247154</v>
+        <v>1.035066579157516</v>
       </c>
       <c r="N24">
-        <v>1.013122768104326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011479764973502</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036325223427913</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032059413647699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0144719786193</v>
+        <v>1.00467845409751</v>
       </c>
       <c r="D25">
-        <v>1.030351227996557</v>
+        <v>1.022044097280493</v>
       </c>
       <c r="E25">
-        <v>1.028334510942559</v>
+        <v>1.010800753370105</v>
       </c>
       <c r="F25">
-        <v>1.037559859260625</v>
+        <v>1.027433170282289</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049707987884454</v>
+        <v>1.050222105623409</v>
       </c>
       <c r="J25">
-        <v>1.03852192926389</v>
+        <v>1.029049388930444</v>
       </c>
       <c r="K25">
-        <v>1.04249596684638</v>
+        <v>1.03430958040045</v>
       </c>
       <c r="L25">
-        <v>1.040508335554042</v>
+        <v>1.023233683775577</v>
       </c>
       <c r="M25">
-        <v>1.049601801470245</v>
+        <v>1.039620041127901</v>
       </c>
       <c r="N25">
-        <v>1.015855081225119</v>
+        <v>1.013235172724761</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039928995201853</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035378577491749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_24/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011034375841801</v>
+        <v>1.010649716299652</v>
       </c>
       <c r="D2">
-        <v>1.026749176251958</v>
+        <v>1.02583695199241</v>
       </c>
       <c r="E2">
-        <v>1.015876282391699</v>
+        <v>1.015593733330626</v>
       </c>
       <c r="F2">
-        <v>1.032043836170716</v>
+        <v>1.031436197463233</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051830496145964</v>
+        <v>1.051675574954722</v>
       </c>
       <c r="J2">
-        <v>1.032889986128875</v>
+        <v>1.032516495933631</v>
       </c>
       <c r="K2">
-        <v>1.037848018340917</v>
+        <v>1.036947699934476</v>
       </c>
       <c r="L2">
-        <v>1.027118779111813</v>
+        <v>1.026840014649842</v>
       </c>
       <c r="M2">
-        <v>1.043074095052735</v>
+        <v>1.042474282520083</v>
       </c>
       <c r="N2">
-        <v>1.014549564519102</v>
+        <v>1.015655921731214</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04266264428628</v>
+        <v>1.042187934146468</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037832095402163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037204274513666</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021705125293164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015536616392946</v>
+        <v>1.014839146926289</v>
       </c>
       <c r="D3">
-        <v>1.030110046669376</v>
+        <v>1.028816137076959</v>
       </c>
       <c r="E3">
-        <v>1.019488221139642</v>
+        <v>1.018927382661473</v>
       </c>
       <c r="F3">
-        <v>1.035336239925257</v>
+        <v>1.034447172969426</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052937094063242</v>
+        <v>1.052655455164701</v>
       </c>
       <c r="J3">
-        <v>1.035612515491873</v>
+        <v>1.034933296667532</v>
       </c>
       <c r="K3">
-        <v>1.040371630811293</v>
+        <v>1.039093122581788</v>
       </c>
       <c r="L3">
-        <v>1.029877673992174</v>
+        <v>1.029323679155652</v>
       </c>
       <c r="M3">
-        <v>1.045536101768942</v>
+        <v>1.044657480357814</v>
       </c>
       <c r="N3">
-        <v>1.015485845284118</v>
+        <v>1.016308581314115</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044611149099292</v>
+        <v>1.0439157827681</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039613848818055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038718331796552</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022193475011205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018388419474522</v>
+        <v>1.017495506973017</v>
       </c>
       <c r="D4">
-        <v>1.032245958115379</v>
+        <v>1.030712106802414</v>
       </c>
       <c r="E4">
-        <v>1.02178171959751</v>
+        <v>1.021046813419113</v>
       </c>
       <c r="F4">
-        <v>1.037431622683207</v>
+        <v>1.036365991409083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053620629797453</v>
+        <v>1.053259472017029</v>
       </c>
       <c r="J4">
-        <v>1.037333163657935</v>
+        <v>1.036462022223628</v>
       </c>
       <c r="K4">
-        <v>1.041970177149</v>
+        <v>1.040453472556808</v>
       </c>
       <c r="L4">
-        <v>1.031624178314103</v>
+        <v>1.030897688541931</v>
       </c>
       <c r="M4">
-        <v>1.047098333358691</v>
+        <v>1.046044462045886</v>
       </c>
       <c r="N4">
-        <v>1.016077539072237</v>
+        <v>1.016721558427138</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045847542615459</v>
+        <v>1.045013479785702</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040745055422666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03968119250023</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022500665322479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019578623910453</v>
+        <v>1.018604391245981</v>
       </c>
       <c r="D5">
-        <v>1.033141685886815</v>
+        <v>1.031507860356362</v>
       </c>
       <c r="E5">
-        <v>1.022740946265009</v>
+        <v>1.021933511324996</v>
       </c>
       <c r="F5">
-        <v>1.038309410586409</v>
+        <v>1.037170260008587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053902576712186</v>
+        <v>1.053508254576091</v>
       </c>
       <c r="J5">
-        <v>1.038052373769218</v>
+        <v>1.037101179749073</v>
       </c>
       <c r="K5">
-        <v>1.042640922832881</v>
+        <v>1.041024871183111</v>
       </c>
       <c r="L5">
-        <v>1.032354522495162</v>
+        <v>1.031556083768284</v>
       </c>
       <c r="M5">
-        <v>1.047752880725065</v>
+        <v>1.046625964617846</v>
       </c>
       <c r="N5">
-        <v>1.016325706761287</v>
+        <v>1.016894825709854</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046365568981297</v>
+        <v>1.045473697080094</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041226488111285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040093091173396</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022629911153337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019784369933439</v>
+        <v>1.018795673605936</v>
       </c>
       <c r="D6">
-        <v>1.033299822417674</v>
+        <v>1.031648432421322</v>
       </c>
       <c r="E6">
-        <v>1.022907711910968</v>
+        <v>1.022087296109397</v>
       </c>
       <c r="F6">
-        <v>1.038462417005515</v>
+        <v>1.037310314875682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053952194954066</v>
+        <v>1.053551972130617</v>
       </c>
       <c r="J6">
-        <v>1.038179148454204</v>
+        <v>1.037213711503368</v>
       </c>
       <c r="K6">
-        <v>1.042761252161353</v>
+        <v>1.041127743979819</v>
       </c>
       <c r="L6">
-        <v>1.032482852977041</v>
+        <v>1.031671535329204</v>
       </c>
       <c r="M6">
-        <v>1.047868393665563</v>
+        <v>1.046728608025678</v>
       </c>
       <c r="N6">
-        <v>1.016370493977994</v>
+        <v>1.016926023790376</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046456988987045</v>
+        <v>1.045554931895356</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041320300136406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040175432165402</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022654129294091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018422582410177</v>
+        <v>1.017535100171967</v>
       </c>
       <c r="D7">
-        <v>1.032280244376335</v>
+        <v>1.030749722573808</v>
       </c>
       <c r="E7">
-        <v>1.021811619743146</v>
+        <v>1.021081706057087</v>
       </c>
       <c r="F7">
-        <v>1.037459829187026</v>
+        <v>1.036397116611045</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05363179038485</v>
+        <v>1.053272825162231</v>
       </c>
       <c r="J7">
-        <v>1.037360571867745</v>
+        <v>1.036494718306136</v>
       </c>
       <c r="K7">
-        <v>1.042001204759431</v>
+        <v>1.040487785287494</v>
       </c>
       <c r="L7">
-        <v>1.031650820793363</v>
+        <v>1.030929262889849</v>
       </c>
       <c r="M7">
-        <v>1.047123372028997</v>
+        <v>1.046072382476821</v>
       </c>
       <c r="N7">
-        <v>1.016089843808698</v>
+        <v>1.016758810433289</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04586735889835</v>
+        <v>1.045035576797207</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04078707895962</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039727544995842</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022512226884798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012592226031133</v>
+        <v>1.01212463284672</v>
       </c>
       <c r="D8">
-        <v>1.027921373150023</v>
+        <v>1.026897209579678</v>
       </c>
       <c r="E8">
-        <v>1.017128029992954</v>
+        <v>1.016772738476666</v>
       </c>
       <c r="F8">
-        <v>1.033184788212608</v>
+        <v>1.0324961179678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.05222067054965</v>
+        <v>1.052032180078884</v>
       </c>
       <c r="J8">
-        <v>1.033841355190957</v>
+        <v>1.033386877503499</v>
       </c>
       <c r="K8">
-        <v>1.038735961151819</v>
+        <v>1.037724761569333</v>
       </c>
       <c r="L8">
-        <v>1.028080883718049</v>
+        <v>1.027730206053705</v>
       </c>
       <c r="M8">
-        <v>1.043933256626002</v>
+        <v>1.043253189749953</v>
       </c>
       <c r="N8">
-        <v>1.014880508102336</v>
+        <v>1.015974193044626</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043342610716313</v>
+        <v>1.042804385293723</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03848286399855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037778909489643</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021889539648585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001794073973526</v>
+        <v>1.002099490401132</v>
       </c>
       <c r="D9">
-        <v>1.019892967323031</v>
+        <v>1.01980008150975</v>
       </c>
       <c r="E9">
-        <v>1.008496634027978</v>
+        <v>1.008828090969933</v>
       </c>
       <c r="F9">
-        <v>1.025343556794057</v>
+        <v>1.025344154168382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049466524782388</v>
+        <v>1.0495888759349</v>
       </c>
       <c r="J9">
-        <v>1.027283637543337</v>
+        <v>1.027578327464002</v>
       </c>
       <c r="K9">
-        <v>1.032671334164633</v>
+        <v>1.032579881389671</v>
       </c>
       <c r="L9">
-        <v>1.021453347152185</v>
+        <v>1.021779544108126</v>
       </c>
       <c r="M9">
-        <v>1.038038411779897</v>
+        <v>1.038039000063517</v>
       </c>
       <c r="N9">
-        <v>1.012621979844786</v>
+        <v>1.014414436848128</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038677239534596</v>
+        <v>1.038677705122818</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034191558454278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034137672711786</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02070239940902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9943263295615661</v>
+        <v>0.99521171831792</v>
       </c>
       <c r="D10">
-        <v>1.014419110169936</v>
+        <v>1.015001771953156</v>
       </c>
       <c r="E10">
-        <v>1.0025755950857</v>
+        <v>1.003420841295116</v>
       </c>
       <c r="F10">
-        <v>1.020064033663172</v>
+        <v>1.020568703808181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047488240457024</v>
+        <v>1.04784138610935</v>
       </c>
       <c r="J10">
-        <v>1.022766875833589</v>
+        <v>1.023616610318837</v>
       </c>
       <c r="K10">
-        <v>1.028532813686323</v>
+        <v>1.029105346463303</v>
       </c>
       <c r="L10">
-        <v>1.016898501562815</v>
+        <v>1.017728604868031</v>
       </c>
       <c r="M10">
-        <v>1.034080235104524</v>
+        <v>1.034576256197353</v>
       </c>
       <c r="N10">
-        <v>1.011081395731565</v>
+        <v>1.013474623507123</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035596212160155</v>
+        <v>1.035988757550846</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031282216566574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031699509014267</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01990521922725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9917667952801934</v>
+        <v>0.9928125854000903</v>
       </c>
       <c r="D11">
-        <v>1.012831263347014</v>
+        <v>1.013597878551234</v>
       </c>
       <c r="E11">
-        <v>1.000662025488697</v>
+        <v>1.001638005542917</v>
       </c>
       <c r="F11">
-        <v>1.018946982426086</v>
+        <v>1.019588154850698</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04689251543512</v>
+        <v>1.047308859767472</v>
       </c>
       <c r="J11">
-        <v>1.021486142121815</v>
+        <v>1.022487456497699</v>
       </c>
       <c r="K11">
-        <v>1.027515190829386</v>
+        <v>1.028267835403337</v>
       </c>
       <c r="L11">
-        <v>1.015571467768662</v>
+        <v>1.01652909744884</v>
       </c>
       <c r="M11">
-        <v>1.033520218535449</v>
+        <v>1.034149885972066</v>
       </c>
       <c r="N11">
-        <v>1.010763341091966</v>
+        <v>1.013476251872771</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035590687805895</v>
+        <v>1.036088747292101</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030595736940919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031143583245674</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019807956130239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9910696892273099</v>
+        <v>0.9921196698142321</v>
       </c>
       <c r="D12">
-        <v>1.012520705347954</v>
+        <v>1.013297652171174</v>
       </c>
       <c r="E12">
-        <v>1.000192015386866</v>
+        <v>1.00116125718231</v>
       </c>
       <c r="F12">
-        <v>1.018954560595297</v>
+        <v>1.019601730438841</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046770796277328</v>
+        <v>1.047188527559799</v>
       </c>
       <c r="J12">
-        <v>1.021256864272283</v>
+        <v>1.022261324762814</v>
       </c>
       <c r="K12">
-        <v>1.027411896441788</v>
+        <v>1.028174448777252</v>
       </c>
       <c r="L12">
-        <v>1.015315537609337</v>
+        <v>1.01626624310332</v>
       </c>
       <c r="M12">
-        <v>1.033727413042352</v>
+        <v>1.034362786996294</v>
       </c>
       <c r="N12">
-        <v>1.010775271899389</v>
+        <v>1.01357056759782</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036081881264206</v>
+        <v>1.036584283533112</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030522703660118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031077556637631</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019853461574764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9917889236456198</v>
+        <v>0.992708226328452</v>
       </c>
       <c r="D13">
-        <v>1.013204944970758</v>
+        <v>1.013847205250678</v>
       </c>
       <c r="E13">
-        <v>1.000825792431655</v>
+        <v>1.001668968624807</v>
       </c>
       <c r="F13">
-        <v>1.019863769137874</v>
+        <v>1.020407310294916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047023657533393</v>
+        <v>1.047389474334312</v>
       </c>
       <c r="J13">
-        <v>1.021850993939936</v>
+        <v>1.022730662630115</v>
       </c>
       <c r="K13">
-        <v>1.028040258000577</v>
+        <v>1.028670677779148</v>
       </c>
       <c r="L13">
-        <v>1.015893207846165</v>
+        <v>1.016720336831008</v>
       </c>
       <c r="M13">
-        <v>1.03457726426381</v>
+        <v>1.035110953046327</v>
       </c>
       <c r="N13">
-        <v>1.011055747728396</v>
+        <v>1.013715627252379</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03703111191019</v>
+        <v>1.037453003353705</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030964474003933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031425654640757</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020020873400119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929317777750003</v>
+        <v>0.9937009430959157</v>
       </c>
       <c r="D14">
-        <v>1.014133030188868</v>
+        <v>1.014617698182745</v>
       </c>
       <c r="E14">
-        <v>1.00176729401744</v>
+        <v>1.002470957360569</v>
       </c>
       <c r="F14">
-        <v>1.020905989262954</v>
+        <v>1.021329266723744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047369201584525</v>
+        <v>1.047675440152796</v>
       </c>
       <c r="J14">
-        <v>1.022637667293614</v>
+        <v>1.023374170857491</v>
       </c>
       <c r="K14">
-        <v>1.028809876863146</v>
+        <v>1.029285727141743</v>
       </c>
       <c r="L14">
-        <v>1.016672883763609</v>
+        <v>1.017363332910782</v>
       </c>
       <c r="M14">
-        <v>1.035460599104027</v>
+        <v>1.035876307244614</v>
       </c>
       <c r="N14">
-        <v>1.011372624542734</v>
+        <v>1.013841823964532</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037902965013288</v>
+        <v>1.038231546030875</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031510057626342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031862079918829</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020193857784476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993528295632342</v>
+        <v>0.9942309492297804</v>
       </c>
       <c r="D15">
-        <v>1.014590142567039</v>
+        <v>1.015003992842588</v>
       </c>
       <c r="E15">
-        <v>1.002246777745424</v>
+        <v>1.002890115748793</v>
       </c>
       <c r="F15">
-        <v>1.02137705525098</v>
+        <v>1.021746561586288</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047539159360076</v>
+        <v>1.047819006406146</v>
       </c>
       <c r="J15">
-        <v>1.023020070483367</v>
+        <v>1.023693157788277</v>
       </c>
       <c r="K15">
-        <v>1.029171628154223</v>
+        <v>1.02957800867183</v>
       </c>
       <c r="L15">
-        <v>1.017054754417714</v>
+        <v>1.017686108000253</v>
       </c>
       <c r="M15">
-        <v>1.03583703276591</v>
+        <v>1.036199983835882</v>
       </c>
       <c r="N15">
-        <v>1.011513683037997</v>
+        <v>1.013890605562836</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038238081361721</v>
+        <v>1.038524954980592</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031771729529871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032075198935934</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020267653190448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9965636336759134</v>
+        <v>0.9969887529055333</v>
       </c>
       <c r="D16">
-        <v>1.01678915717197</v>
+        <v>1.016898542960794</v>
       </c>
       <c r="E16">
-        <v>1.004634458500606</v>
+        <v>1.005033611617355</v>
       </c>
       <c r="F16">
-        <v>1.023476672631873</v>
+        <v>1.023616879698862</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048352360775727</v>
+        <v>1.048521979386304</v>
       </c>
       <c r="J16">
-        <v>1.024837033564963</v>
+        <v>1.025245185512873</v>
       </c>
       <c r="K16">
-        <v>1.030825945851493</v>
+        <v>1.030933445917243</v>
       </c>
       <c r="L16">
-        <v>1.018884104174964</v>
+        <v>1.019276161093759</v>
       </c>
       <c r="M16">
-        <v>1.037399130323152</v>
+        <v>1.037536961020206</v>
       </c>
       <c r="N16">
-        <v>1.012118483982367</v>
+        <v>1.01408754005566</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039434002636587</v>
+        <v>1.039542946069686</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032944574890209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033037013464969</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020566355111416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9982950811517484</v>
+        <v>0.9985946580230752</v>
       </c>
       <c r="D17">
-        <v>1.017992381911854</v>
+        <v>1.017957083424938</v>
       </c>
       <c r="E17">
-        <v>1.005976366526554</v>
+        <v>1.006268483221398</v>
       </c>
       <c r="F17">
-        <v>1.024537993235872</v>
+        <v>1.024570486662223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04879158139093</v>
+        <v>1.048911241415701</v>
       </c>
       <c r="J17">
-        <v>1.025818934904245</v>
+        <v>1.026106948778148</v>
       </c>
       <c r="K17">
-        <v>1.031692126376371</v>
+        <v>1.031657418948541</v>
       </c>
       <c r="L17">
-        <v>1.019880413586676</v>
+        <v>1.020167488722457</v>
       </c>
       <c r="M17">
-        <v>1.038129039747314</v>
+        <v>1.038160998036934</v>
       </c>
       <c r="N17">
-        <v>1.012416841573508</v>
+        <v>1.014201721258522</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039881793191407</v>
+        <v>1.039907056023531</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033559594329836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033551729264791</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020706377395382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9990425955682463</v>
+        <v>0.9993289462053635</v>
       </c>
       <c r="D18">
-        <v>1.018409164416462</v>
+        <v>1.018349717577443</v>
       </c>
       <c r="E18">
-        <v>1.006515848568169</v>
+        <v>1.006803243213758</v>
       </c>
       <c r="F18">
-        <v>1.024740619934261</v>
+        <v>1.024756737347027</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048942099658512</v>
+        <v>1.049056546873458</v>
       </c>
       <c r="J18">
-        <v>1.026141821346982</v>
+        <v>1.026417329137471</v>
       </c>
       <c r="K18">
-        <v>1.031917521564234</v>
+        <v>1.031859053757839</v>
       </c>
       <c r="L18">
-        <v>1.020223049906146</v>
+        <v>1.020505568111105</v>
       </c>
       <c r="M18">
-        <v>1.038145539130017</v>
+        <v>1.03816139532451</v>
       </c>
       <c r="N18">
-        <v>1.012462677639355</v>
+        <v>1.01420575140474</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039656912911113</v>
+        <v>1.039669449753819</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033707278935067</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033681479553239</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020706120222187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9989178474502783</v>
+        <v>0.9992821008774248</v>
       </c>
       <c r="D19">
-        <v>1.018135843031958</v>
+        <v>1.018153052356672</v>
       </c>
       <c r="E19">
-        <v>1.006345751734225</v>
+        <v>1.006711172241797</v>
       </c>
       <c r="F19">
-        <v>1.024174225563052</v>
+        <v>1.024249932849984</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048841501107535</v>
+        <v>1.04898710934063</v>
       </c>
       <c r="J19">
-        <v>1.025886932907504</v>
+        <v>1.026237471013505</v>
       </c>
       <c r="K19">
-        <v>1.031585797329277</v>
+        <v>1.031602724579157</v>
       </c>
       <c r="L19">
-        <v>1.019991880306395</v>
+        <v>1.020351131604238</v>
       </c>
       <c r="M19">
-        <v>1.037525952709273</v>
+        <v>1.037600437891401</v>
       </c>
       <c r="N19">
-        <v>1.01229296122753</v>
+        <v>1.014097563920023</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038841069503989</v>
+        <v>1.038899981177435</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033479156946691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03350729053615</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020586451360581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9963196294963164</v>
+        <v>0.9970192171515068</v>
       </c>
       <c r="D20">
-        <v>1.015901098258543</v>
+        <v>1.016279135299118</v>
       </c>
       <c r="E20">
-        <v>1.00416139855354</v>
+        <v>1.004839836293042</v>
       </c>
       <c r="F20">
-        <v>1.021481814325401</v>
+        <v>1.021831941061023</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048029850597554</v>
+        <v>1.048309205893705</v>
       </c>
       <c r="J20">
-        <v>1.023993164174817</v>
+        <v>1.024665528526156</v>
       </c>
       <c r="K20">
-        <v>1.029669992157004</v>
+        <v>1.030041650686131</v>
       </c>
       <c r="L20">
-        <v>1.018131467343273</v>
+        <v>1.018798113541141</v>
       </c>
       <c r="M20">
-        <v>1.035157164110799</v>
+        <v>1.035501465882042</v>
       </c>
       <c r="N20">
-        <v>1.011508933069051</v>
+        <v>1.0136594495476</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036437905336164</v>
+        <v>1.03671038501956</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032128549156373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032407891778818</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020125240169385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9905382474146758</v>
+        <v>0.9918337360045197</v>
       </c>
       <c r="D21">
-        <v>1.01162156939743</v>
+        <v>1.012641789158573</v>
       </c>
       <c r="E21">
-        <v>0.9995693852286147</v>
+        <v>1.000785333202615</v>
       </c>
       <c r="F21">
-        <v>1.017281515014932</v>
+        <v>1.018119047011566</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046448757342534</v>
+        <v>1.046964353839568</v>
       </c>
       <c r="J21">
-        <v>1.020436957244105</v>
+        <v>1.021676898136963</v>
       </c>
       <c r="K21">
-        <v>1.026386062597241</v>
+        <v>1.02738755278425</v>
       </c>
       <c r="L21">
-        <v>1.014558920333953</v>
+        <v>1.015751842465173</v>
       </c>
       <c r="M21">
-        <v>1.031942717183904</v>
+        <v>1.032765091493891</v>
       </c>
       <c r="N21">
-        <v>1.010273199040828</v>
+        <v>1.013279360950798</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033852877377266</v>
+        <v>1.034503737279792</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029809930540849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030534935743833</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019513060386197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9868389823887966</v>
+        <v>0.9885136924146577</v>
       </c>
       <c r="D22">
-        <v>1.008901186109893</v>
+        <v>1.01032957200282</v>
       </c>
       <c r="E22">
-        <v>0.9966427763992763</v>
+        <v>0.9982006374445197</v>
       </c>
       <c r="F22">
-        <v>1.014646962228181</v>
+        <v>1.015794532620325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045423383148567</v>
+        <v>1.046088479580463</v>
       </c>
       <c r="J22">
-        <v>1.018167894885197</v>
+        <v>1.019766442658666</v>
       </c>
       <c r="K22">
-        <v>1.02429834734888</v>
+        <v>1.02569913833486</v>
       </c>
       <c r="L22">
-        <v>1.01228103521636</v>
+        <v>1.013807824533068</v>
       </c>
       <c r="M22">
-        <v>1.029933739029052</v>
+        <v>1.031059458635351</v>
       </c>
       <c r="N22">
-        <v>1.009487968677979</v>
+        <v>1.013030675522826</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03226288922331</v>
+        <v>1.033153830583808</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028320215146348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029326267403711</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019124622277064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.988789790383872</v>
+        <v>0.9902513808723981</v>
       </c>
       <c r="D23">
-        <v>1.010326724395985</v>
+        <v>1.011529252555098</v>
       </c>
       <c r="E23">
-        <v>0.9981824537280501</v>
+        <v>0.999547644846297</v>
       </c>
       <c r="F23">
-        <v>1.016032009159685</v>
+        <v>1.017007472083341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04596339487399</v>
+        <v>1.046544515055901</v>
       </c>
       <c r="J23">
-        <v>1.019358194410545</v>
+        <v>1.020755340716332</v>
       </c>
       <c r="K23">
-        <v>1.025388206863182</v>
+        <v>1.02656811749576</v>
       </c>
       <c r="L23">
-        <v>1.01347635419605</v>
+        <v>1.014815048899561</v>
       </c>
       <c r="M23">
-        <v>1.030986805050504</v>
+        <v>1.031944183430807</v>
       </c>
       <c r="N23">
-        <v>1.009896644804425</v>
+        <v>1.013112775538843</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033096329546357</v>
+        <v>1.033854037824212</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029081094068782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029930029655278</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019319519211023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9963125763214202</v>
+        <v>0.9970237880981004</v>
       </c>
       <c r="D24">
-        <v>1.015856910145085</v>
+        <v>1.016245832983229</v>
       </c>
       <c r="E24">
-        <v>1.0041416286604</v>
+        <v>1.00483201073928</v>
       </c>
       <c r="F24">
-        <v>1.021405217370601</v>
+        <v>1.021763983088431</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048014735665256</v>
+        <v>1.048298745297807</v>
       </c>
       <c r="J24">
-        <v>1.023953313220098</v>
+        <v>1.02463688816929</v>
       </c>
       <c r="K24">
-        <v>1.029611167724374</v>
+        <v>1.029993536155116</v>
       </c>
       <c r="L24">
-        <v>1.018096400946879</v>
+        <v>1.018774798912063</v>
       </c>
       <c r="M24">
-        <v>1.035066579157516</v>
+        <v>1.035419382747958</v>
       </c>
       <c r="N24">
-        <v>1.011479764973502</v>
+        <v>1.013638402453691</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036325223427913</v>
+        <v>1.036604445389658</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032059413647699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032343665967975</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020101757426473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00467845409751</v>
+        <v>1.004760941749315</v>
       </c>
       <c r="D25">
-        <v>1.022044097280493</v>
+        <v>1.021689982438717</v>
       </c>
       <c r="E25">
-        <v>1.010800753370105</v>
+        <v>1.010933423780604</v>
       </c>
       <c r="F25">
-        <v>1.027433170282289</v>
+        <v>1.027239180325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050222105623409</v>
+        <v>1.05025520504387</v>
       </c>
       <c r="J25">
-        <v>1.029049388930444</v>
+        <v>1.029129136687501</v>
       </c>
       <c r="K25">
-        <v>1.03430958040045</v>
+        <v>1.033960668021827</v>
       </c>
       <c r="L25">
-        <v>1.023233683775577</v>
+        <v>1.023364350667548</v>
       </c>
       <c r="M25">
-        <v>1.039620041127901</v>
+        <v>1.039428862826104</v>
       </c>
       <c r="N25">
-        <v>1.013235172724761</v>
+        <v>1.014802632856887</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039928995201853</v>
+        <v>1.039777690258213</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035378577491749</v>
+        <v>1.03514544451947</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021026191062883</v>
       </c>
     </row>
   </sheetData>
